--- a/500all/speech_level/speeches_CHRG-114hhrg95226.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg95226.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="224">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>400381</t>
   </si>
   <si>
-    <t>Lamar Smith</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Chairman Smith. The Committee on Science, Space, and Technology will come to order.    Without objection, the Chair is authorized to declare recesses of the Committee at any time.    Welcome to today's hearing titled ``EPA Regulatory Outreach: Impacts on Industry.'' I am going to recognize myself for five minutes for an opening statement, and then I'll do the same for the Ranking Member.    Over the last year, the Environmental Protection Agency has released some of the most expensive and expansive regulations in its history. These rules will cost billions of dollars, place a heavy burden on American families, and diminish the competitiveness of American industry around the world.    Today's hearing will examine this Administration's unprecedented regulatory agenda and the manner in which EPA has used secret science, questionable legal interpretations, and flawed analysis to promote these rules. Specifically, we will hear from our witnesses about how the Clean Power Plan, the Ozone National Ambient Air Quality Standards, and the definition of the ``Waters of the United States'' adversely impact the American economy with little benefit to our environment.    The so-called Clean Power Plan is a power grab that will force states to reach arbitrary and often impossible targets for carbon emissions. These measures will impose tremendous costs on everyday Americans. It will shut down large numbers of affordable power plants, which increases the cost of electricity and puts the reliability of the electric grid into question. The Clean Power Plan will have an even greater impact on those who live on fixed incomes, such as the elderly and the poor, who are the most vulnerable to increases in the price for some of our most basic necessities like electricity. EPA asserts that the Clean Power Plan will help combat climate change. However, EPA's own data demonstrates that is not the case. The EPA data shows that this regulation would eliminate much less than one percent of global carbon emissions and would reduce sea-level rise by only 1/100th of an inch, the thickness of three sheets of paper. This rule represents massive costs without significant benefits. In other words, it's all pain and no gain.    EPA also seeks to impose stricter ozone standards by lowering the standard from the current 75 parts per billion to between 65-70 ppb. Analysis conducted by EPA shows that this rule would cost at least $15 billion annually, and industry groups believe the costs will be even greater. Once again, these costs come with few benefits. In fact, EPA's own figures show that since 1980, ozone levels have decreased by 33 percent. Today's air quality will continue to improve with the expected development of practical new technologies.    Last week, the EPA submitted its final rule to define the ``Waters of the United States.'' This is the EPA's latest attempt to expand its jurisdiction and increase its power to regulate American waterways, even if that means invading Americans' backyards. The rule will make it difficult for farmers and others to improve their land and expand their businesses. While the draft rule left many questions as to which bodies of water the EPA will claim under its jurisdiction, the final rule is more specific. As many had predicted, EPA has claimed unprecedented jurisdiction over many different kinds of water, including those that temporarily result from a ``drizzle.'' The EPA actually used that word, ``drizzle.'' EPA will now have the authority to oversee features such as prairie potholes and even areas that are not always filled with water. Under this regulatory regime, Americans will be subject to required permits and the constant threat of government intervention. The onslaught of EPA regulations continues.    I look forward to hearing from today's witnesses about the impact of these burdensome EPA regulations.</t>
   </si>
   <si>
@@ -73,36 +70,24 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Kerr</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Kerr. Thank you. Chairman Smith, Members of the Committee, I appreciate the opportunity to testify today. My name is Bob Kerr, and I'm President of Kerr Environmental Services, an environmental consulting and water resources engineering firm located in Virginia Beach, Virginia. I've provided wetlands consulting and permitting assistance throughout Virginia and North Carolina for more than 26 years.    Since 1972, the Clean Water Act has played an important role in improving the quality of the nation's water resources yet there continues to be frustration and uncertainty over the scope of the Act and the appropriate role of the federal government in protecting the nation's waters.    Decades after the enactment of the Clean Water Act, there still is no easy way to determine if certain types of waters are subject to state law or federal mandates. EPA and the Corps recently issued a rule intended to clarify what is subject to federal regulation. Unfortunately, the rule does not provide the needed predictability and certainty in the permitting process. It fails to follow the intent of Congress, ignores Supreme Court precedent, and does not respect the authority of the state to regulate their land and water resources.    The agencies claim the rule does not expand federal jurisdiction but that's simply not the case. The rule establishes a broader definition of ``tributaries,'' which, for the first time, includes ditches and streams that only flow after it rains. It also allows the agencies to regulate intermittent and ephemeral drainages by rule classifying them as tributaries whereas before the agencies required an analysis of their significant nexus to traditional navigable waters before federal jurisdiction could be established. While this certainly provides clarity, it does not limit jurisdiction.    The new definition of ``neighboring'' includes areas that were not previously federally regulated such as non-wetlands located more than a quarter of a mile from a traditional navigable water or similar features located within a floodplain and up to 1,500 feet from the feature. Moreover, the agencies retain extensive authority to interpret certain ambiguous definitions as they see fit. This will allow for the inconsistent application of the rule among regulators both within a Corps district and across the country. Ultimately, the rule will lead to more litigation, project delays, more landowners needing permits, and the higher costs of permitting avoidance and mitigation.    You might look at the rule and think it's a dream come true for a consultant like me because more regulation will mean more business. I fear the exact opposite. Under the new rule, I'll need to complete more jurisdictional determinations, will have to conduct multiple tests to determine whether a feature qualifies as a water of the United States. It'll take additional time and resources to complete the tests, and that will cost clients more money. Not knowing their permit costs in advance increases financial risk for my clients. As such, clients may not--may decide not to pursue some projects as a result.    Some cases may also be so complex that they are too time-consuming or costly to resolve. In such cases, clients have the option to concede federal jurisdiction and proceed with permitting and mitigation through a preliminary jurisdictional determination, but that isn't a fair program to me nor does it keep the legislative intent of the Clean Water Act, and that's not good for the economy as a whole.    To start to fix this, we need a new rule that respects the state's role in regulating waters. Many aspects of the Clean Water Act are vague but it's clear that Congress intended to create a partnership between the federal agencies and state government to protect our nation's water resources. The Supreme Court has twice affirmed that the Clean Water Act places limits on federal authority. There is a point where federal authority ends and state authority begins. The final rule published by the EPA and Corps would assert jurisdiction over many features that are isolated, carry only minor volumes of water, or have only theoretical impacts on traditional navigable waters. These waters are properly regulated by the states.    The federal government cannot just assert jurisdiction over everything, yet that appears to be the agencies' solution, and many of the bright-line limits written into the rule seem so large in scale or so vague as to have created no actual limitation. Precedent suggests that the courts will again have to rein in the overarching rule but only after countless years of litigation. The wiser path forward is for Congress to act now. Let's get the agencies to withdraw the rule, resolve the problems, provide the clarity we need as to what constitutes a water of the United States.    Thank you again for the opportunity to testify today.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Smith. Thank you very much.    Mr. Kovacs.</t>
   </si>
   <si>
-    <t>Kovacs</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Kovacs. Thank you, Chairman Smith and Ranking Member Johnson and Members of the Committee.    For my opening remarks today, I'm going to address the question many of us have been asking for a while: How did an Environmental Protection Agency acquire such great power over energy policy, state waters, land use, and the nation's economic development at the expense of states which implement over 90 percent of the federally delegated programs and are the main point of contact for the regulated community?    The purpose of regulation is to implement the laws passed by Congress in the most efficient way to achieve the Congressional intent. In the 1970s, Congress when it enacted these environmental laws had very little knowledge of how to protect the environment. It also recognized that while it was protecting the environment, it would cause, and I emphasize, they recognized in 1970 it would cause plants to shut down, jobs to be lost, and harm to impacted communities. But to deal with this dilemma, Congress gave the EPA very broad authorities to protect the environment but also mandated that the EPA continuously evaluate the potential loss or shifts in employment resulting from the regulations so that Congress could make corrections based on actual input.    Congress also authorized citizen suits by granting access to the courts to anyone protecting the environment, in effect granting special environmental enforcement authorities to private-sector entities. Then in 1984, the Supreme Court granted deference to EPA's decisions where Congress was silent or vague on any of the statutory provisions in thousands of pages of legislation. In essence, the Supreme Court authorized EPA to fill in all of the gaps in the legislation. Almost from the beginning, EPA missed a high percentage of its Congressionally mandated deadlines. Since EPA misses between 84 percent and 98 percent of its deadlines, depending on which study you believe, citizen suits were brought to force the EPA to comply with the deadlines. Rather than arguing it had discretion in meeting the conflicting priorities, EPA entered into consent decrees with advocacy groups agreeing to implement the regulations requested, thereby letting these groups set the policy for the Agency and the priorities.    The best illustration of the impact of the sue-and-settle process is that between 2000 and 2013 time frame, approximately 425 agencies issued almost 50,000 regulations but only 30 of those regulations were costing over a billion dollars a year to the regulated community or to the states, and EPA issued 17 of the 30, and those 17 account for 82 percent of all the costs for all 30 rules. Beginning in 1980 and onward, Congress passed numerous regulatory laws to provide guidance to the agencies as to the type of information needed to be developed by the agency to ensure that it complied with Congress's intent to have a sound rulemaking record based on fact, science and economics. These statutes were the Information Quality Act, the Regulatory Flexibility Act, and unfunded mandates reform. EPA routinely ignores Congressional mandates, and, more importantly, it has never started in 35 years a continuing evaluation of the employment impacts of its regulations, thereby leaving Congress without the information needed to legislate.    Therefore, the condition we have today and the circumstances we find ourselves in is we have an agency that has been given broad delegated authority to make policy. You have a federal judiciary that has said that anything that you don't describe in clear terms, that they have--that based on deference, they have the authority to fill in the legislative gaps.    The development of secret sue-and-settle agreements allows these advocacy groups to set agency policy, and we have an agency that for 35 years has refused to evaluate the impact of regulations on employment. We also have an agency that routinely ignores Congressional mandates to try to--that fix the regulatory record through having the agency talk to small businesses, find out what the unfunded mandates are on state and local governments, and use sound and science--sound science and factual information.    If Congress wants its laws implicated according to what you believe you've legislated, it must ensure that the agency is accountable to Congress, that the rulemaking process is transparent, that it operates within integrity, and provides all of the participants the same rights as they participate in the federal rulemaking process.    Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Smith. Thank you, Mr. Kovacs.    Dr. Paulson.</t>
   </si>
   <si>
-    <t>Paulson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Paulson. Good morning, Chairman Smith, Ranking Member Johnson and Committee members. Chairman Smith, thank you for your kind introduction of me, and I will just add that for 30 to 35 years I also practiced----</t>
   </si>
   <si>
     <t>412263</t>
   </si>
   <si>
-    <t>Donna F. Edwards</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Edwards. Mr. Chairman, is the mic on?</t>
   </si>
   <si>
@@ -112,9 +97,6 @@
     <t xml:space="preserve">    Chairman Smith. Thank you, Dr. Paulson.    And Mr. Eisenberg.</t>
   </si>
   <si>
-    <t>Eisenberg</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Eisenberg. Good morning, Chairman Smith, Ranking Member Johnson, members of the Committee. Thank you for the opportunity to be here today to present the views of the National Association of Manufacturers and our 14,000 members.    Manufacturers believe regulation is critical to the protection of worker safety, public health, and our environment. We believe in the mission of the EPA and we support reasonable environmental regulation. However, we also bear an unmistakably high burden of compliance with the Agency's regulations. Manufacturers spend, on average, over $19,000 per employee per year on regulatory compliance and over $10,000 of this is for environmental regulations. The smaller the manufacturer, though, the larger the burden. Manufacturers with less than 50 employees spend over $34,000 per employee per year and over $20,000 of this is due to environmental regulations.    So when the EPA issues a new regulation with new costs and new burdens, manufacturers have to pay these costs not op of what we're already doing, the tens of thousands of dollars that we've already assumed. So we're not starting from zero. In fact, our plants are already equipped with the best available pollution control technology. We maximize our efficiency and we limit waste and we recycle. And so while we'll always strive for improvement, in some cases we're really already pushing up against or beyond what technology can deliver, and so we need--what we need as manufacturers more than ever are smarter regulations.    We just don't believe we're getting that from the EPA with respect to the three regulations that we're here to talk about today: ozone, the Cleaner Power Plan, and the ``waters of the United States'' definition. In all three cases, the costs and burdens placed on manufacturers as a result of these regulations are very significant and could make us significantly less competitive.    Manufacturers are committed to reducing ozone levels, and we've been doing so for decades. We've been reducing the emission that cause ozone by more than half since 1980. However, the progress we've made, it also means that both the low-hanging fruit and the high-hanging fruit are pretty much gone and so the controls that are needed to reduce ozone levels are already in place. In fact, with this rule, EPA can only identify about 35 percent of the controls and technologies needed to achieve this new 65-parts-per-billion standard. You heard that right. A solid two-third of the controls that will be needed to comply to this are called unknown controls. We don't know what they are.    Economic analysis of this new standard shows that it would be the most expensive regulation in history. Second place isn't even close. It would cost about $140 billion per year, about $1.7 trillion over the next 23 years, placing the equivalent of 1.4 million jobs in jeopardy each year and reducing annual household income--consumption--I'm sorry--by an average of about $830 per year. Very few low-cost control options exist for this tightening of ozone standard, so if controls aren't invented in time, what winds up happening is, manufacturers are forced to consider scrapping equipment, scrapping existing plants, replacing them, or just plain old shutting them down. And then there's nonattainment for ozone, which is essentially a synonym for no growth. There has to be a better way for this than this, and really there is. The current standard is only being implemented. It's going to drive ozone precursor emissions, the emissions that cause ozone, down by another 36 percent over the next decade. We believe we should let that standard work before moving the chains one more time.    On climate, we're committing to addressing climate change through improved energy efficiency, greater sustainability and reducing our greenhouse gas emissions. We've done that. We reduced our emissions ten percent over the past decade, but our competitiveness is threatened by the Clean Power Plan as it's currently drafted. Independent analysis of this rule places total compliance costs as high as about $366 billion through 2031. Forty-three states could experience double-digit electricity prices. That's very difficult for us as we are major, major energy users. And even worse, many sectors in my membership, manufacturing, are due to get follow-on regulations under the Act that will be modeled off of this one, meaning we're going to be hit twice.    We believe EPA needs to fix this rule. We agree that adoption of a strong and fair international climate agreement should be a priority, but we also must be very careful not to lock into place policies that will send production and emissions overseas if the rest of the world doesn't play by those same rules in Paris in December.    Finally, manufacturers are disappointed with the final Waters of the United States regulation. We would welcome a clear rule that resolves disagreement over scope of the Clean Water Act. Instead, we ended up with a final regulation that fails to do this. It fails to clear up the problems and may have even created new ones. The regulation certainly expands the scope of the Clean Water Act to areas that are not even wet, and it fails to provide clear exclusions as to what actually qualifies. We're going to face, manufacturers are going to face increased uncertainty, permitting costs, and supply-and consumer-chain disruptions. Ambiguities in the new regulation will give rise to third-party lawsuits, even in cases where EPA agrees with us and believes that it is not a water of the United States.    I assure you, we do not enjoy having to have an adversarial position to the EPA on these regulations. We prefer to work with them as a partner toward a shared goal of protecting the environment. However, we desperately need the EPA to choose a different regulatory path.    Sadly, we are nearing the time where legislation may be our only hope, and we ask this Committee for its help in that pursuit.    Thank you.</t>
   </si>
   <si>
@@ -187,9 +169,6 @@
     <t>400343</t>
   </si>
   <si>
-    <t>Dana Rohrabacher</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Rohrabacher. Years ago, when I was in high school, which seems, really, I guess it was in another century, I remember when I was in Los Angeles when in high school, and we were not permitted to go out and do strenuous exercises because the pollution levels in Los Angeles were so high that perhaps once or twice a week they called a pollution emergency. Today, I think it happens once or twice a year, so there has been a dramatic reduction in the air pollution, at least in southern California, and I take it from the testimony that we've heard that that's true throughout the rest of the country as well.    We have to attribute that to the fact that there has been regulation that has been successful, and those of who have a natural inclination against regulation need to be honest about that, and the question is, is whether or not we have come to a point or when we did come to that point where such regulation actually does not clean the air but there are natural sources of pollution when you have to want to maintain a certain standard of living for people. If we're going to have civilization, there will be-- manufacturing will take place. If you do not have manufacturing, people will get sick for other reasons other than just the air.    The question is for you, Dr. Paulson. Has there been a decrease in the number of illnesses, air-pollution-related illnesses that has been recorded in these last 10, 15 years as the pollution level's gone down?</t>
   </si>
   <si>
@@ -286,9 +265,6 @@
     <t>412614</t>
   </si>
   <si>
-    <t>Stephen Knight</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Knight. Thank you, Mr. Chair.    I would go on a line of questioning of kind of what we've done in California. I think that my statement would be that California has probably gone about this as stringent as any state in the union as far as our clean air, clean water, clean energy, clean everything that we have done, not just of course on EPA standards because everyone has to go along with that but what the legislature has done in California to go about this.    So I guess my questions would be, and we can start with Mr. Kerr, that we have seen a loss in the last ten years of about 80,000 manufacturing jobs in California due in part to what we have done in California, not just by our regulations but what we have mandated on business and how they can interact with the air and the water in California. Do you think that--and I think Mr. Rohrabacher was going down the right line of questioning. Do you think we have hit a line in the road where if we go too far, then we're not going to just continue to hemorrhage jobs but America and many parts of America will be so uncompetitive that businesses' only choice will be to look elsewhere.</t>
   </si>
   <si>
@@ -316,9 +292,6 @@
     <t>412501</t>
   </si>
   <si>
-    <t>Suzanne Bonamici</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Bonamici. Thank you very much, Mr. Chairman, and I'm going to follow up on the discussion we were just having, and Mr. Chairman, you mentioned this in your opening statement too about diminishing the competitiveness of U.S. businesses, and we hear these claims that the Clean Power Plan or other environmental laws are going to kill jobs, hurt the economy. There's a suggestion that our businesses will go overseas.    I just read this morning that Ikea just pledged a billion euros, which is $1.13 billion, to help slow climate change through renewable energy and steps to help poor nations cope with climate change. They said this is good for customers, good for the climate, and good for their company. So they found that customers actually value environmental responsibility, and I suggest that we look at that and what our customers value.    And I also want to talk about how the numbers speak for themselves. The Union of Concerned Scientists just released an analysis that shows that most states are already making significant progress toward cutting carbon emissions from power plants, and according to that analysis, 31 states including my State of Oregon are already more than halfway toward meeting the 2020 benchmarks set out by the EPA under the Clean Power Plan. All but four states have already made decisions that will help cut their power plant emissions. Fourteen states including California, Kentucky, Ohio and New York are already ahead of the emission rate reduction trajectory because of current carbon-cutting decisions and actions.    I find this very encouraging and again highlights how the environmental regulations can bring about positive results. Mr. Chairman, I ask unanimous consent to enter this analysis into the record.</t>
   </si>
   <si>
@@ -346,9 +319,6 @@
     <t>412655</t>
   </si>
   <si>
-    <t>Brian Babin</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Babin. Yes, sir. Thank you very much, Mr. Chairman, and thank you to all you witnesses for being here.    The EPA Administrator, Ms. McCarthy, Gina McCarthy, wrote an op-ed recently saying that the Agency's air standards attract new business, new investment and new jobs. I don't think that Administrator McCarthy is living in the same world as the rest of us.    I represent the 36th District in the State of Texas, and we have one of the largest numbers of petrochemical plants and refineries in the country. Most of my district is not in attainment with these new regulations. I will also add that neither is Yellowstone National Park in attainment with these new regulations.    There is no concrete evidence to support the lower standard for ozone that the EPA is calling for, not to mention the cost that is associated with it, given the strenuous economic times. I would now ask for a slid be placed on the screen to describe my district, the State of Texas, District 36. We have the largest manufacturing industry in the State of Texas in the chemical and refining industry. We directly employ or indirectly employ over 10,000 people down there in this portion of my district, and we pay $934 million in wages in this district with an average wage of nearly $100,000.    These proposed new rules promise to be the most expensive regulations in the history of the United States, likely costing us thousands of jobs and prolonging a recession. This is bureaucratic overreach in the extreme.    I would ask Mr. Kovacs and Mr. Eisenberg whether this is worth putting all of this at risk with these new regulations. Mr. Kovacs?</t>
   </si>
   <si>
@@ -370,9 +340,6 @@
     <t>412657</t>
   </si>
   <si>
-    <t>Donald S. Beyer, Jr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Beyer. Thank you, Mr. Chairman.    Mr. Chairman, Mr. Eisenberg and Mr. Kovacs both cited a study prepared on behalf of NAM in their written testimonies, and this study estimates the compliance costs associated with an ozone standard of 65 parts per billion.    I have an article from Bloomberg News that discusses NAM's study and a number of groups criticize the study and its methodology, saying that the study doesn't include an estimate of the anticipated benefits of the 65 standard, it overestimates compliance costs, and that it makes ``unrealistic assumptions.'' For example, the use of the Cash for Clunkers program, with which I'm very familiar, is used as the basis for estimating the cost of unknown pollution controls. This is described as ``insane and unmoored from economic reality.''    Also, it's important to understand well what the new standards might cost and the savings that might generate. Please allow me to point out that the 2001 Supreme Court, the same court that put George W. Bush in the White House in Bush v. Gore ruled that the Clean Air Act prohibits the EPA from considering the cost of compliance with setting National Ambient Air Quality Standards.    So Mr. Chairman, I ask unanimous consent to have this article entered into the record.</t>
   </si>
   <si>
@@ -403,9 +370,6 @@
     <t>412319</t>
   </si>
   <si>
-    <t>Paul Tonko</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Tonko. Thank you, Mr. Chair, and thank you to our witnesses.</t>
   </si>
   <si>
@@ -433,9 +397,6 @@
     <t>412624</t>
   </si>
   <si>
-    <t>Barry Loudermilk</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Loudermilk. Thank you, Mr. Chairman.    One of the issues that we run into I've found out in my brief time here in Congress is getting down to the true facts, and part of getting the true facts in science is that getting away from presenting facts that justify an end but making your end justified off the facts that are before you.    I live ten miles from one of the largest coal-fired plants in the nation, and Mr. Chairman, to your point earlier, this plant, you really can't see the smoke when it comes out, but what comes out is white but it's steam that's used to cool that.    But Dr. Paulson, you brought up something that was concerning to me because I live ten miles from one of the largest coal-fired plants in the nation. My one-year-old granddaughter lives about 11 miles from it. And you brought up in your statement, you said that outdoor air pollution is linked to respiratory problems in children including decreased lung function, coughing, wheezing, more frequent respiratory illnesses and so on, and that is true. A quick check--you are absolutely right. It is linked to air pollution. But Dr. Paulson, can you tell me what is the greatest contributing factor to asthma worldwide according to the World Health Organization?</t>
   </si>
   <si>
@@ -463,9 +424,6 @@
     <t>400441</t>
   </si>
   <si>
-    <t>Randy Neugebauer</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Neugebauer. Thank you, Mr. Chairman.    Mr. Kerr, you know, since 1986, EPA and the Corps has only had jurisdiction over the wetlands adjacent to other jurisdictional waters. Can you explain in detail the rule's new concept of adjacent waters?</t>
   </si>
   <si>
@@ -508,9 +466,6 @@
     <t>412574</t>
   </si>
   <si>
-    <t>Randy K. Weber, Sr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Weber. Thank you.    Mr. Kerr, you said earlier isolated wetlands were not regulated by the EPA according to a Supreme Court case. Can you give me the name of that case?</t>
   </si>
   <si>
@@ -640,9 +595,6 @@
     <t>412608</t>
   </si>
   <si>
-    <t>Gary J. Palmer</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Palmer. Thank you, Mr. Chairman.    I want to start out by addressing air quality, and I have here the air quality section from a report done by the Alabama Policy Institute that shows that since 1980, our GDP has increased by 467 percent, vehicle miles traveled up 94 percent. The population's grown by 38 percent. Energy consumption is up 22 percent. But emissions are down 50 percent. When you look at the air quality index and the percentage of days per year that the air quality index exceeded the standards, we went from about 24 percent in 1980 to about two percent. So there's no question that we have done an excellent job of improving air quality yet the asthma rate has gone up. I think that's been mentioned several times.    I'd also like to point out that there might be other factors that cause asthma rates to have gone up, and for instance, here's a report from UCLA, University of California, Los Angeles, in case anyone wonders what the acronym is. It says asthma disproportionately affects low-income populations, and the percentages are astonishing, frankly, that it would have such a higher prevalence among low-income families when I think--and I'll ask my colleague from California, Mr. Knight, I believe that higher-income families breathe the same air as the low-income families. So, Mr. Chairman, I'd like to enter into the record the article and the section from the report on air quality, and I'll also point out----</t>
   </si>
   <si>
@@ -689,9 +641,6 @@
   </si>
   <si>
     <t>412634</t>
-  </si>
-  <si>
-    <t>John R. Moolenaar</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Moolenaar. Thank you, Mr. Chairman.    Mr. Kerr, I'd just like to continue following up with you and then also talk to Mr. Kovacs and Mr. Eisenberg on some of the Waters of the United States issues. What in your judgment--there were some court cases. There's the Clean Air Act and there was an effort by the EPA to clarify its jurisdiction. Is that really how we've gotten to this point?</t>
@@ -1135,11 +1084,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1161,11 +1108,9 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1187,11 +1132,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1213,11 +1156,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1239,11 +1180,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1263,13 +1202,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
         <v>18</v>
-      </c>
-      <c r="G7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1291,11 +1228,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1315,13 +1250,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" t="s">
-        <v>22</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1343,11 +1276,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1367,13 +1298,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" t="s">
-        <v>25</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1393,13 +1322,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" t="s">
-        <v>28</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1419,13 +1346,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
         <v>25</v>
-      </c>
-      <c r="H13" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1447,11 +1372,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1471,13 +1394,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" t="s">
-        <v>32</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1499,11 +1420,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1523,13 +1442,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" t="s">
-        <v>19</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1551,11 +1468,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1575,13 +1490,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" t="s">
-        <v>19</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1603,11 +1516,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1627,13 +1538,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" t="s">
-        <v>19</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1655,11 +1564,9 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1679,13 +1586,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" t="s">
-        <v>22</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1707,11 +1612,9 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1731,13 +1634,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" t="s">
-        <v>25</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1759,11 +1660,9 @@
       <c r="F26" t="s">
         <v>11</v>
       </c>
-      <c r="G26" t="s">
-        <v>12</v>
-      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1783,13 +1682,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>18</v>
-      </c>
-      <c r="G27" t="s">
-        <v>25</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1811,11 +1708,9 @@
       <c r="F28" t="s">
         <v>11</v>
       </c>
-      <c r="G28" t="s">
-        <v>12</v>
-      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1835,13 +1730,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" t="s">
-        <v>32</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1863,11 +1756,9 @@
       <c r="F30" t="s">
         <v>11</v>
       </c>
-      <c r="G30" t="s">
-        <v>12</v>
-      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1887,13 +1778,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31" t="s">
-        <v>32</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1915,11 +1804,9 @@
       <c r="F32" t="s">
         <v>11</v>
       </c>
-      <c r="G32" t="s">
-        <v>12</v>
-      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1939,13 +1826,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>18</v>
-      </c>
-      <c r="G33" t="s">
-        <v>32</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1967,11 +1852,9 @@
       <c r="F34" t="s">
         <v>11</v>
       </c>
-      <c r="G34" t="s">
-        <v>12</v>
-      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1991,13 +1874,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>18</v>
-      </c>
-      <c r="G35" t="s">
-        <v>25</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2017,13 +1898,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>18</v>
-      </c>
-      <c r="G36" t="s">
-        <v>25</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2045,11 +1924,9 @@
       <c r="F37" t="s">
         <v>11</v>
       </c>
-      <c r="G37" t="s">
-        <v>12</v>
-      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2069,13 +1946,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>56</v>
-      </c>
-      <c r="G38" t="s">
-        <v>57</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2095,13 +1970,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>18</v>
-      </c>
-      <c r="G39" t="s">
-        <v>25</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2121,13 +1994,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>56</v>
-      </c>
-      <c r="G40" t="s">
-        <v>57</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2147,13 +2018,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>18</v>
-      </c>
-      <c r="G41" t="s">
-        <v>25</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2173,13 +2042,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>56</v>
-      </c>
-      <c r="G42" t="s">
-        <v>57</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2199,13 +2066,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>18</v>
-      </c>
-      <c r="G43" t="s">
-        <v>25</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2225,13 +2090,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>56</v>
-      </c>
-      <c r="G44" t="s">
+        <v>50</v>
+      </c>
+      <c r="G44" t="s"/>
+      <c r="H44" t="s">
         <v>57</v>
-      </c>
-      <c r="H44" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2251,13 +2114,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>18</v>
-      </c>
-      <c r="G45" t="s">
-        <v>25</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2277,13 +2138,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>56</v>
-      </c>
-      <c r="G46" t="s">
-        <v>57</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2303,13 +2162,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>18</v>
-      </c>
-      <c r="G47" t="s">
-        <v>25</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2329,13 +2186,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>56</v>
-      </c>
-      <c r="G48" t="s">
-        <v>57</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2355,13 +2210,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>18</v>
-      </c>
-      <c r="G49" t="s">
-        <v>22</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2381,13 +2234,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>56</v>
-      </c>
-      <c r="G50" t="s">
-        <v>57</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2409,11 +2260,9 @@
       <c r="F51" t="s">
         <v>11</v>
       </c>
-      <c r="G51" t="s">
-        <v>12</v>
-      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2433,13 +2282,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>56</v>
-      </c>
-      <c r="G52" t="s">
-        <v>57</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2461,11 +2308,9 @@
       <c r="F53" t="s">
         <v>11</v>
       </c>
-      <c r="G53" t="s">
-        <v>12</v>
-      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2485,13 +2330,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>27</v>
-      </c>
-      <c r="G54" t="s">
-        <v>28</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2513,11 +2356,9 @@
       <c r="F55" t="s">
         <v>11</v>
       </c>
-      <c r="G55" t="s">
-        <v>12</v>
-      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2537,13 +2378,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>27</v>
-      </c>
-      <c r="G56" t="s">
-        <v>28</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2565,11 +2404,9 @@
       <c r="F57" t="s">
         <v>11</v>
       </c>
-      <c r="G57" t="s">
-        <v>12</v>
-      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2589,13 +2426,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>27</v>
-      </c>
-      <c r="G58" t="s">
-        <v>28</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2617,11 +2452,9 @@
       <c r="F59" t="s">
         <v>11</v>
       </c>
-      <c r="G59" t="s">
-        <v>12</v>
-      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2641,13 +2474,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>27</v>
-      </c>
-      <c r="G60" t="s">
-        <v>28</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2669,11 +2500,9 @@
       <c r="F61" t="s">
         <v>11</v>
       </c>
-      <c r="G61" t="s">
-        <v>12</v>
-      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2693,13 +2522,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>27</v>
-      </c>
-      <c r="G62" t="s">
-        <v>28</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2721,11 +2548,9 @@
       <c r="F63" t="s">
         <v>11</v>
       </c>
-      <c r="G63" t="s">
-        <v>12</v>
-      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2745,13 +2570,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>27</v>
-      </c>
-      <c r="G64" t="s">
-        <v>28</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2773,11 +2596,9 @@
       <c r="F65" t="s">
         <v>11</v>
       </c>
-      <c r="G65" t="s">
-        <v>12</v>
-      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2797,13 +2618,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>27</v>
-      </c>
-      <c r="G66" t="s">
-        <v>28</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2825,11 +2644,9 @@
       <c r="F67" t="s">
         <v>11</v>
       </c>
-      <c r="G67" t="s">
-        <v>12</v>
-      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2849,13 +2666,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>27</v>
-      </c>
-      <c r="G68" t="s">
-        <v>28</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2877,11 +2692,9 @@
       <c r="F69" t="s">
         <v>11</v>
       </c>
-      <c r="G69" t="s">
-        <v>12</v>
-      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2901,13 +2714,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>89</v>
-      </c>
-      <c r="G70" t="s">
-        <v>90</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2927,13 +2738,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>18</v>
-      </c>
-      <c r="G71" t="s">
-        <v>19</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2953,13 +2762,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>18</v>
-      </c>
-      <c r="G72" t="s">
-        <v>22</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2979,13 +2786,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>89</v>
-      </c>
-      <c r="G73" t="s">
-        <v>90</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3005,13 +2810,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>18</v>
-      </c>
-      <c r="G74" t="s">
-        <v>32</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3031,13 +2834,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>18</v>
-      </c>
-      <c r="G75" t="s">
-        <v>25</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3057,13 +2858,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
+        <v>82</v>
+      </c>
+      <c r="G76" t="s"/>
+      <c r="H76" t="s">
         <v>89</v>
-      </c>
-      <c r="G76" t="s">
-        <v>90</v>
-      </c>
-      <c r="H76" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3085,11 +2884,9 @@
       <c r="F77" t="s">
         <v>11</v>
       </c>
-      <c r="G77" t="s">
-        <v>12</v>
-      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3109,13 +2906,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>99</v>
-      </c>
-      <c r="G78" t="s">
-        <v>100</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3137,11 +2932,9 @@
       <c r="F79" t="s">
         <v>11</v>
       </c>
-      <c r="G79" t="s">
-        <v>12</v>
-      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3161,13 +2954,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>99</v>
-      </c>
-      <c r="G80" t="s">
-        <v>100</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3187,13 +2978,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>18</v>
-      </c>
-      <c r="G81" t="s">
-        <v>25</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3213,13 +3002,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>99</v>
-      </c>
-      <c r="G82" t="s">
-        <v>100</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3239,13 +3026,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>18</v>
-      </c>
-      <c r="G83" t="s">
-        <v>25</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3265,13 +3050,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>99</v>
-      </c>
-      <c r="G84" t="s">
-        <v>100</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3293,11 +3076,9 @@
       <c r="F85" t="s">
         <v>11</v>
       </c>
-      <c r="G85" t="s">
-        <v>12</v>
-      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3319,11 +3100,9 @@
       <c r="F86" t="s">
         <v>11</v>
       </c>
-      <c r="G86" t="s">
-        <v>12</v>
-      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3343,13 +3122,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>109</v>
-      </c>
-      <c r="G87" t="s">
-        <v>110</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3369,13 +3146,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>18</v>
-      </c>
-      <c r="G88" t="s">
-        <v>22</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3395,13 +3170,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>109</v>
-      </c>
-      <c r="G89" t="s">
-        <v>110</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3421,13 +3194,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>18</v>
-      </c>
-      <c r="G90" t="s">
-        <v>32</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3447,13 +3218,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>109</v>
-      </c>
-      <c r="G91" t="s">
-        <v>110</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3475,11 +3244,9 @@
       <c r="F92" t="s">
         <v>11</v>
       </c>
-      <c r="G92" t="s">
-        <v>12</v>
-      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3499,13 +3266,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>117</v>
-      </c>
-      <c r="G93" t="s">
-        <v>118</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3527,11 +3292,9 @@
       <c r="F94" t="s">
         <v>11</v>
       </c>
-      <c r="G94" t="s">
-        <v>12</v>
-      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3551,13 +3314,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>18</v>
-      </c>
-      <c r="G95" t="s">
-        <v>25</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3577,13 +3338,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>117</v>
-      </c>
-      <c r="G96" t="s">
-        <v>118</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3603,13 +3362,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>18</v>
-      </c>
-      <c r="G97" t="s">
-        <v>22</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3631,11 +3388,9 @@
       <c r="F98" t="s">
         <v>11</v>
       </c>
-      <c r="G98" t="s">
-        <v>12</v>
-      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3655,13 +3410,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>18</v>
-      </c>
-      <c r="G99" t="s">
-        <v>22</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3681,13 +3434,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>18</v>
-      </c>
-      <c r="G100" t="s">
-        <v>32</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3709,11 +3460,9 @@
       <c r="F101" t="s">
         <v>11</v>
       </c>
-      <c r="G101" t="s">
-        <v>12</v>
-      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3733,13 +3482,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>128</v>
-      </c>
-      <c r="G102" t="s">
-        <v>129</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3761,11 +3508,9 @@
       <c r="F103" t="s">
         <v>11</v>
       </c>
-      <c r="G103" t="s">
-        <v>12</v>
-      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3785,13 +3530,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>128</v>
-      </c>
-      <c r="G104" t="s">
-        <v>129</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3811,13 +3554,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>18</v>
-      </c>
-      <c r="G105" t="s">
-        <v>25</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3837,13 +3578,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>128</v>
-      </c>
-      <c r="G106" t="s">
-        <v>129</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3863,13 +3602,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>18</v>
-      </c>
-      <c r="G107" t="s">
-        <v>25</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3889,13 +3626,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>128</v>
-      </c>
-      <c r="G108" t="s">
-        <v>129</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3917,11 +3652,9 @@
       <c r="F109" t="s">
         <v>11</v>
       </c>
-      <c r="G109" t="s">
-        <v>12</v>
-      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3941,13 +3674,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>138</v>
-      </c>
-      <c r="G110" t="s">
-        <v>139</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3967,13 +3698,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>18</v>
-      </c>
-      <c r="G111" t="s">
-        <v>25</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3993,13 +3722,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>138</v>
-      </c>
-      <c r="G112" t="s">
-        <v>139</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4019,13 +3746,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>18</v>
-      </c>
-      <c r="G113" t="s">
-        <v>25</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4045,13 +3770,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>138</v>
-      </c>
-      <c r="G114" t="s">
-        <v>139</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4071,13 +3794,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>18</v>
-      </c>
-      <c r="G115" t="s">
-        <v>32</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4097,13 +3818,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>138</v>
-      </c>
-      <c r="G116" t="s">
-        <v>139</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4125,11 +3844,9 @@
       <c r="F117" t="s">
         <v>11</v>
       </c>
-      <c r="G117" t="s">
-        <v>12</v>
-      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4149,13 +3866,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>148</v>
-      </c>
-      <c r="G118" t="s">
-        <v>149</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4175,13 +3890,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>18</v>
-      </c>
-      <c r="G119" t="s">
-        <v>19</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4201,13 +3914,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>148</v>
-      </c>
-      <c r="G120" t="s">
-        <v>149</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4227,13 +3938,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>18</v>
-      </c>
-      <c r="G121" t="s">
-        <v>19</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4253,13 +3962,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>148</v>
-      </c>
-      <c r="G122" t="s">
-        <v>149</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4279,13 +3986,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>18</v>
-      </c>
-      <c r="G123" t="s">
-        <v>19</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4305,13 +4010,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>148</v>
-      </c>
-      <c r="G124" t="s">
-        <v>149</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4331,13 +4034,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>18</v>
-      </c>
-      <c r="G125" t="s">
-        <v>19</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4357,13 +4058,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>148</v>
-      </c>
-      <c r="G126" t="s">
-        <v>149</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4383,13 +4082,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>18</v>
-      </c>
-      <c r="G127" t="s">
-        <v>19</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4409,13 +4106,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>148</v>
-      </c>
-      <c r="G128" t="s">
-        <v>149</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4435,13 +4130,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>18</v>
-      </c>
-      <c r="G129" t="s">
-        <v>19</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4463,11 +4156,9 @@
       <c r="F130" t="s">
         <v>11</v>
       </c>
-      <c r="G130" t="s">
-        <v>12</v>
-      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4487,13 +4178,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>163</v>
-      </c>
-      <c r="G131" t="s">
-        <v>164</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4513,13 +4202,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>18</v>
-      </c>
-      <c r="G132" t="s">
-        <v>19</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4539,13 +4226,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>163</v>
-      </c>
-      <c r="G133" t="s">
-        <v>164</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4565,13 +4250,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>18</v>
-      </c>
-      <c r="G134" t="s">
-        <v>19</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4591,13 +4274,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>163</v>
-      </c>
-      <c r="G135" t="s">
-        <v>164</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4617,13 +4298,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>18</v>
-      </c>
-      <c r="G136" t="s">
-        <v>19</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4643,13 +4322,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>163</v>
-      </c>
-      <c r="G137" t="s">
-        <v>164</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4669,13 +4346,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>18</v>
-      </c>
-      <c r="G138" t="s">
-        <v>22</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4695,13 +4370,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>163</v>
-      </c>
-      <c r="G139" t="s">
-        <v>164</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4721,13 +4394,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>18</v>
-      </c>
-      <c r="G140" t="s">
-        <v>25</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4747,13 +4418,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>163</v>
-      </c>
-      <c r="G141" t="s">
-        <v>164</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4773,13 +4442,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>18</v>
-      </c>
-      <c r="G142" t="s">
-        <v>32</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4799,13 +4466,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>163</v>
-      </c>
-      <c r="G143" t="s">
-        <v>164</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4825,13 +4490,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>18</v>
-      </c>
-      <c r="G144" t="s">
-        <v>32</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4851,13 +4514,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
+        <v>149</v>
+      </c>
+      <c r="G145" t="s"/>
+      <c r="H145" t="s">
         <v>163</v>
-      </c>
-      <c r="G145" t="s">
-        <v>164</v>
-      </c>
-      <c r="H145" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4877,13 +4538,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>18</v>
-      </c>
-      <c r="G146" t="s">
-        <v>32</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4903,13 +4562,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>163</v>
-      </c>
-      <c r="G147" t="s">
-        <v>164</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4929,13 +4586,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>18</v>
-      </c>
-      <c r="G148" t="s">
-        <v>22</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4955,13 +4610,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>163</v>
-      </c>
-      <c r="G149" t="s">
-        <v>164</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4981,13 +4634,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>18</v>
-      </c>
-      <c r="G150" t="s">
-        <v>22</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5007,13 +4658,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>163</v>
-      </c>
-      <c r="G151" t="s">
-        <v>164</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5033,13 +4682,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>18</v>
-      </c>
-      <c r="G152" t="s">
-        <v>22</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5059,13 +4706,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>163</v>
-      </c>
-      <c r="G153" t="s">
-        <v>164</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5085,13 +4730,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>18</v>
-      </c>
-      <c r="G154" t="s">
-        <v>22</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5111,13 +4754,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>163</v>
-      </c>
-      <c r="G155" t="s">
-        <v>164</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5137,13 +4778,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>18</v>
-      </c>
-      <c r="G156" t="s">
-        <v>19</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5163,13 +4802,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>163</v>
-      </c>
-      <c r="G157" t="s">
-        <v>164</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5189,13 +4826,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>18</v>
-      </c>
-      <c r="G158" t="s">
-        <v>25</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5215,13 +4850,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>163</v>
-      </c>
-      <c r="G159" t="s">
-        <v>164</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5241,13 +4874,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>18</v>
-      </c>
-      <c r="G160" t="s">
-        <v>32</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5267,13 +4898,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>163</v>
-      </c>
-      <c r="G161" t="s">
-        <v>164</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5293,13 +4922,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>18</v>
-      </c>
-      <c r="G162" t="s">
-        <v>32</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5319,13 +4946,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>163</v>
-      </c>
-      <c r="G163" t="s">
-        <v>164</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5345,13 +4970,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>18</v>
-      </c>
-      <c r="G164" t="s">
-        <v>32</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5371,13 +4994,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>163</v>
-      </c>
-      <c r="G165" t="s">
-        <v>164</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5397,13 +5018,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>18</v>
-      </c>
-      <c r="G166" t="s">
-        <v>25</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5423,13 +5042,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>163</v>
-      </c>
-      <c r="G167" t="s">
-        <v>164</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5449,13 +5066,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>18</v>
-      </c>
-      <c r="G168" t="s">
-        <v>25</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5475,13 +5090,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>163</v>
-      </c>
-      <c r="G169" t="s">
-        <v>164</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5501,13 +5114,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>18</v>
-      </c>
-      <c r="G170" t="s">
-        <v>22</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5527,13 +5138,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>163</v>
-      </c>
-      <c r="G171" t="s">
-        <v>164</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5553,13 +5162,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>18</v>
-      </c>
-      <c r="G172" t="s">
-        <v>19</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5579,13 +5186,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>163</v>
-      </c>
-      <c r="G173" t="s">
-        <v>164</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5605,13 +5210,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>18</v>
-      </c>
-      <c r="G174" t="s">
-        <v>32</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5631,13 +5234,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>163</v>
-      </c>
-      <c r="G175" t="s">
-        <v>164</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5659,11 +5260,9 @@
       <c r="F176" t="s">
         <v>11</v>
       </c>
-      <c r="G176" t="s">
-        <v>12</v>
-      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5683,13 +5282,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>207</v>
-      </c>
-      <c r="G177" t="s">
-        <v>208</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5711,11 +5308,9 @@
       <c r="F178" t="s">
         <v>11</v>
       </c>
-      <c r="G178" t="s">
-        <v>12</v>
-      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5735,13 +5330,11 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>207</v>
-      </c>
-      <c r="G179" t="s">
-        <v>208</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5761,13 +5354,11 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>18</v>
-      </c>
-      <c r="G180" t="s">
-        <v>19</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5787,13 +5378,11 @@
         <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>207</v>
-      </c>
-      <c r="G181" t="s">
-        <v>208</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5813,13 +5402,11 @@
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>18</v>
-      </c>
-      <c r="G182" t="s">
-        <v>19</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5839,13 +5426,11 @@
         <v>10</v>
       </c>
       <c r="F183" t="s">
-        <v>207</v>
-      </c>
-      <c r="G183" t="s">
-        <v>208</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5865,13 +5450,11 @@
         <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>18</v>
-      </c>
-      <c r="G184" t="s">
-        <v>19</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5891,13 +5474,11 @@
         <v>10</v>
       </c>
       <c r="F185" t="s">
-        <v>207</v>
-      </c>
-      <c r="G185" t="s">
-        <v>208</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5917,13 +5498,11 @@
         <v>10</v>
       </c>
       <c r="F186" t="s">
-        <v>18</v>
-      </c>
-      <c r="G186" t="s">
-        <v>19</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5943,13 +5522,11 @@
         <v>10</v>
       </c>
       <c r="F187" t="s">
-        <v>207</v>
-      </c>
-      <c r="G187" t="s">
-        <v>208</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5969,13 +5546,11 @@
         <v>10</v>
       </c>
       <c r="F188" t="s">
-        <v>18</v>
-      </c>
-      <c r="G188" t="s">
-        <v>19</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5995,13 +5570,11 @@
         <v>10</v>
       </c>
       <c r="F189" t="s">
-        <v>207</v>
-      </c>
-      <c r="G189" t="s">
-        <v>208</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6023,11 +5596,9 @@
       <c r="F190" t="s">
         <v>11</v>
       </c>
-      <c r="G190" t="s">
-        <v>12</v>
-      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6047,13 +5618,11 @@
         <v>10</v>
       </c>
       <c r="F191" t="s">
-        <v>207</v>
-      </c>
-      <c r="G191" t="s">
-        <v>208</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6075,11 +5644,9 @@
       <c r="F192" t="s">
         <v>11</v>
       </c>
-      <c r="G192" t="s">
-        <v>12</v>
-      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6099,13 +5666,11 @@
         <v>10</v>
       </c>
       <c r="F193" t="s">
-        <v>224</v>
-      </c>
-      <c r="G193" t="s">
-        <v>225</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6125,13 +5690,11 @@
         <v>10</v>
       </c>
       <c r="F194" t="s">
-        <v>18</v>
-      </c>
-      <c r="G194" t="s">
-        <v>19</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6151,13 +5714,11 @@
         <v>10</v>
       </c>
       <c r="F195" t="s">
-        <v>224</v>
-      </c>
-      <c r="G195" t="s">
-        <v>225</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>228</v>
+        <v>211</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6177,13 +5738,11 @@
         <v>10</v>
       </c>
       <c r="F196" t="s">
-        <v>18</v>
-      </c>
-      <c r="G196" t="s">
-        <v>19</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6203,13 +5762,11 @@
         <v>10</v>
       </c>
       <c r="F197" t="s">
-        <v>224</v>
-      </c>
-      <c r="G197" t="s">
-        <v>225</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>230</v>
+        <v>213</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6229,13 +5786,11 @@
         <v>10</v>
       </c>
       <c r="F198" t="s">
-        <v>18</v>
-      </c>
-      <c r="G198" t="s">
-        <v>19</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6255,13 +5810,11 @@
         <v>10</v>
       </c>
       <c r="F199" t="s">
-        <v>224</v>
-      </c>
-      <c r="G199" t="s">
-        <v>225</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="G199" t="s"/>
       <c r="H199" t="s">
-        <v>232</v>
+        <v>215</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6281,13 +5834,11 @@
         <v>10</v>
       </c>
       <c r="F200" t="s">
-        <v>18</v>
-      </c>
-      <c r="G200" t="s">
-        <v>19</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G200" t="s"/>
       <c r="H200" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6307,13 +5858,11 @@
         <v>10</v>
       </c>
       <c r="F201" t="s">
-        <v>224</v>
-      </c>
-      <c r="G201" t="s">
-        <v>225</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="G201" t="s"/>
       <c r="H201" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6333,13 +5882,11 @@
         <v>10</v>
       </c>
       <c r="F202" t="s">
-        <v>18</v>
-      </c>
-      <c r="G202" t="s">
-        <v>22</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G202" t="s"/>
       <c r="H202" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6359,13 +5906,11 @@
         <v>10</v>
       </c>
       <c r="F203" t="s">
-        <v>224</v>
-      </c>
-      <c r="G203" t="s">
-        <v>225</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="G203" t="s"/>
       <c r="H203" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -6385,13 +5930,11 @@
         <v>10</v>
       </c>
       <c r="F204" t="s">
-        <v>18</v>
-      </c>
-      <c r="G204" t="s">
-        <v>32</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G204" t="s"/>
       <c r="H204" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -6411,13 +5954,11 @@
         <v>10</v>
       </c>
       <c r="F205" t="s">
-        <v>224</v>
-      </c>
-      <c r="G205" t="s">
-        <v>225</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="G205" t="s"/>
       <c r="H205" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -6439,11 +5980,9 @@
       <c r="F206" t="s">
         <v>11</v>
       </c>
-      <c r="G206" t="s">
-        <v>12</v>
-      </c>
+      <c r="G206" t="s"/>
       <c r="H206" t="s">
-        <v>239</v>
+        <v>222</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -6465,11 +6004,9 @@
       <c r="F207" t="s">
         <v>11</v>
       </c>
-      <c r="G207" t="s">
-        <v>12</v>
-      </c>
+      <c r="G207" t="s"/>
       <c r="H207" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -6491,11 +6028,9 @@
       <c r="F208" t="s">
         <v>11</v>
       </c>
-      <c r="G208" t="s">
-        <v>12</v>
-      </c>
+      <c r="G208" t="s"/>
       <c r="H208" t="s">
-        <v>240</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg95226.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg95226.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="254">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,6 +55,12 @@
     <t>400381</t>
   </si>
   <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>Lamar</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Chairman Smith. The Committee on Science, Space, and Technology will come to order.    Without objection, the Chair is authorized to declare recesses of the Committee at any time.    Welcome to today's hearing titled ``EPA Regulatory Outreach: Impacts on Industry.'' I am going to recognize myself for five minutes for an opening statement, and then I'll do the same for the Ranking Member.    Over the last year, the Environmental Protection Agency has released some of the most expensive and expansive regulations in its history. These rules will cost billions of dollars, place a heavy burden on American families, and diminish the competitiveness of American industry around the world.    Today's hearing will examine this Administration's unprecedented regulatory agenda and the manner in which EPA has used secret science, questionable legal interpretations, and flawed analysis to promote these rules. Specifically, we will hear from our witnesses about how the Clean Power Plan, the Ozone National Ambient Air Quality Standards, and the definition of the ``Waters of the United States'' adversely impact the American economy with little benefit to our environment.    The so-called Clean Power Plan is a power grab that will force states to reach arbitrary and often impossible targets for carbon emissions. These measures will impose tremendous costs on everyday Americans. It will shut down large numbers of affordable power plants, which increases the cost of electricity and puts the reliability of the electric grid into question. The Clean Power Plan will have an even greater impact on those who live on fixed incomes, such as the elderly and the poor, who are the most vulnerable to increases in the price for some of our most basic necessities like electricity. EPA asserts that the Clean Power Plan will help combat climate change. However, EPA's own data demonstrates that is not the case. The EPA data shows that this regulation would eliminate much less than one percent of global carbon emissions and would reduce sea-level rise by only 1/100th of an inch, the thickness of three sheets of paper. This rule represents massive costs without significant benefits. In other words, it's all pain and no gain.    EPA also seeks to impose stricter ozone standards by lowering the standard from the current 75 parts per billion to between 65-70 ppb. Analysis conducted by EPA shows that this rule would cost at least $15 billion annually, and industry groups believe the costs will be even greater. Once again, these costs come with few benefits. In fact, EPA's own figures show that since 1980, ozone levels have decreased by 33 percent. Today's air quality will continue to improve with the expected development of practical new technologies.    Last week, the EPA submitted its final rule to define the ``Waters of the United States.'' This is the EPA's latest attempt to expand its jurisdiction and increase its power to regulate American waterways, even if that means invading Americans' backyards. The rule will make it difficult for farmers and others to improve their land and expand their businesses. While the draft rule left many questions as to which bodies of water the EPA will claim under its jurisdiction, the final rule is more specific. As many had predicted, EPA has claimed unprecedented jurisdiction over many different kinds of water, including those that temporarily result from a ``drizzle.'' The EPA actually used that word, ``drizzle.'' EPA will now have the authority to oversee features such as prairie potholes and even areas that are not always filled with water. Under this regulatory regime, Americans will be subject to required permits and the constant threat of government intervention. The onslaught of EPA regulations continues.    I look forward to hearing from today's witnesses about the impact of these burdensome EPA regulations.</t>
   </si>
   <si>
@@ -70,24 +79,39 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Kerr</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Kerr. Thank you. Chairman Smith, Members of the Committee, I appreciate the opportunity to testify today. My name is Bob Kerr, and I'm President of Kerr Environmental Services, an environmental consulting and water resources engineering firm located in Virginia Beach, Virginia. I've provided wetlands consulting and permitting assistance throughout Virginia and North Carolina for more than 26 years.    Since 1972, the Clean Water Act has played an important role in improving the quality of the nation's water resources yet there continues to be frustration and uncertainty over the scope of the Act and the appropriate role of the federal government in protecting the nation's waters.    Decades after the enactment of the Clean Water Act, there still is no easy way to determine if certain types of waters are subject to state law or federal mandates. EPA and the Corps recently issued a rule intended to clarify what is subject to federal regulation. Unfortunately, the rule does not provide the needed predictability and certainty in the permitting process. It fails to follow the intent of Congress, ignores Supreme Court precedent, and does not respect the authority of the state to regulate their land and water resources.    The agencies claim the rule does not expand federal jurisdiction but that's simply not the case. The rule establishes a broader definition of ``tributaries,'' which, for the first time, includes ditches and streams that only flow after it rains. It also allows the agencies to regulate intermittent and ephemeral drainages by rule classifying them as tributaries whereas before the agencies required an analysis of their significant nexus to traditional navigable waters before federal jurisdiction could be established. While this certainly provides clarity, it does not limit jurisdiction.    The new definition of ``neighboring'' includes areas that were not previously federally regulated such as non-wetlands located more than a quarter of a mile from a traditional navigable water or similar features located within a floodplain and up to 1,500 feet from the feature. Moreover, the agencies retain extensive authority to interpret certain ambiguous definitions as they see fit. This will allow for the inconsistent application of the rule among regulators both within a Corps district and across the country. Ultimately, the rule will lead to more litigation, project delays, more landowners needing permits, and the higher costs of permitting avoidance and mitigation.    You might look at the rule and think it's a dream come true for a consultant like me because more regulation will mean more business. I fear the exact opposite. Under the new rule, I'll need to complete more jurisdictional determinations, will have to conduct multiple tests to determine whether a feature qualifies as a water of the United States. It'll take additional time and resources to complete the tests, and that will cost clients more money. Not knowing their permit costs in advance increases financial risk for my clients. As such, clients may not--may decide not to pursue some projects as a result.    Some cases may also be so complex that they are too time-consuming or costly to resolve. In such cases, clients have the option to concede federal jurisdiction and proceed with permitting and mitigation through a preliminary jurisdictional determination, but that isn't a fair program to me nor does it keep the legislative intent of the Clean Water Act, and that's not good for the economy as a whole.    To start to fix this, we need a new rule that respects the state's role in regulating waters. Many aspects of the Clean Water Act are vague but it's clear that Congress intended to create a partnership between the federal agencies and state government to protect our nation's water resources. The Supreme Court has twice affirmed that the Clean Water Act places limits on federal authority. There is a point where federal authority ends and state authority begins. The final rule published by the EPA and Corps would assert jurisdiction over many features that are isolated, carry only minor volumes of water, or have only theoretical impacts on traditional navigable waters. These waters are properly regulated by the states.    The federal government cannot just assert jurisdiction over everything, yet that appears to be the agencies' solution, and many of the bright-line limits written into the rule seem so large in scale or so vague as to have created no actual limitation. Precedent suggests that the courts will again have to rein in the overarching rule but only after countless years of litigation. The wiser path forward is for Congress to act now. Let's get the agencies to withdraw the rule, resolve the problems, provide the clarity we need as to what constitutes a water of the United States.    Thank you again for the opportunity to testify today.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Smith. Thank you very much.    Mr. Kovacs.</t>
   </si>
   <si>
+    <t>Kovacs</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Kovacs. Thank you, Chairman Smith and Ranking Member Johnson and Members of the Committee.    For my opening remarks today, I'm going to address the question many of us have been asking for a while: How did an Environmental Protection Agency acquire such great power over energy policy, state waters, land use, and the nation's economic development at the expense of states which implement over 90 percent of the federally delegated programs and are the main point of contact for the regulated community?    The purpose of regulation is to implement the laws passed by Congress in the most efficient way to achieve the Congressional intent. In the 1970s, Congress when it enacted these environmental laws had very little knowledge of how to protect the environment. It also recognized that while it was protecting the environment, it would cause, and I emphasize, they recognized in 1970 it would cause plants to shut down, jobs to be lost, and harm to impacted communities. But to deal with this dilemma, Congress gave the EPA very broad authorities to protect the environment but also mandated that the EPA continuously evaluate the potential loss or shifts in employment resulting from the regulations so that Congress could make corrections based on actual input.    Congress also authorized citizen suits by granting access to the courts to anyone protecting the environment, in effect granting special environmental enforcement authorities to private-sector entities. Then in 1984, the Supreme Court granted deference to EPA's decisions where Congress was silent or vague on any of the statutory provisions in thousands of pages of legislation. In essence, the Supreme Court authorized EPA to fill in all of the gaps in the legislation. Almost from the beginning, EPA missed a high percentage of its Congressionally mandated deadlines. Since EPA misses between 84 percent and 98 percent of its deadlines, depending on which study you believe, citizen suits were brought to force the EPA to comply with the deadlines. Rather than arguing it had discretion in meeting the conflicting priorities, EPA entered into consent decrees with advocacy groups agreeing to implement the regulations requested, thereby letting these groups set the policy for the Agency and the priorities.    The best illustration of the impact of the sue-and-settle process is that between 2000 and 2013 time frame, approximately 425 agencies issued almost 50,000 regulations but only 30 of those regulations were costing over a billion dollars a year to the regulated community or to the states, and EPA issued 17 of the 30, and those 17 account for 82 percent of all the costs for all 30 rules. Beginning in 1980 and onward, Congress passed numerous regulatory laws to provide guidance to the agencies as to the type of information needed to be developed by the agency to ensure that it complied with Congress's intent to have a sound rulemaking record based on fact, science and economics. These statutes were the Information Quality Act, the Regulatory Flexibility Act, and unfunded mandates reform. EPA routinely ignores Congressional mandates, and, more importantly, it has never started in 35 years a continuing evaluation of the employment impacts of its regulations, thereby leaving Congress without the information needed to legislate.    Therefore, the condition we have today and the circumstances we find ourselves in is we have an agency that has been given broad delegated authority to make policy. You have a federal judiciary that has said that anything that you don't describe in clear terms, that they have--that based on deference, they have the authority to fill in the legislative gaps.    The development of secret sue-and-settle agreements allows these advocacy groups to set agency policy, and we have an agency that for 35 years has refused to evaluate the impact of regulations on employment. We also have an agency that routinely ignores Congressional mandates to try to--that fix the regulatory record through having the agency talk to small businesses, find out what the unfunded mandates are on state and local governments, and use sound and science--sound science and factual information.    If Congress wants its laws implicated according to what you believe you've legislated, it must ensure that the agency is accountable to Congress, that the rulemaking process is transparent, that it operates within integrity, and provides all of the participants the same rights as they participate in the federal rulemaking process.    Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Smith. Thank you, Mr. Kovacs.    Dr. Paulson.</t>
   </si>
   <si>
+    <t>Paulson</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. Paulson. Good morning, Chairman Smith, Ranking Member Johnson and Committee members. Chairman Smith, thank you for your kind introduction of me, and I will just add that for 30 to 35 years I also practiced----</t>
   </si>
   <si>
     <t>412263</t>
   </si>
   <si>
+    <t>Edwards</t>
+  </si>
+  <si>
+    <t>Donna</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Edwards. Mr. Chairman, is the mic on?</t>
   </si>
   <si>
@@ -97,6 +121,9 @@
     <t xml:space="preserve">    Chairman Smith. Thank you, Dr. Paulson.    And Mr. Eisenberg.</t>
   </si>
   <si>
+    <t>Eisenberg</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Eisenberg. Good morning, Chairman Smith, Ranking Member Johnson, members of the Committee. Thank you for the opportunity to be here today to present the views of the National Association of Manufacturers and our 14,000 members.    Manufacturers believe regulation is critical to the protection of worker safety, public health, and our environment. We believe in the mission of the EPA and we support reasonable environmental regulation. However, we also bear an unmistakably high burden of compliance with the Agency's regulations. Manufacturers spend, on average, over $19,000 per employee per year on regulatory compliance and over $10,000 of this is for environmental regulations. The smaller the manufacturer, though, the larger the burden. Manufacturers with less than 50 employees spend over $34,000 per employee per year and over $20,000 of this is due to environmental regulations.    So when the EPA issues a new regulation with new costs and new burdens, manufacturers have to pay these costs not op of what we're already doing, the tens of thousands of dollars that we've already assumed. So we're not starting from zero. In fact, our plants are already equipped with the best available pollution control technology. We maximize our efficiency and we limit waste and we recycle. And so while we'll always strive for improvement, in some cases we're really already pushing up against or beyond what technology can deliver, and so we need--what we need as manufacturers more than ever are smarter regulations.    We just don't believe we're getting that from the EPA with respect to the three regulations that we're here to talk about today: ozone, the Cleaner Power Plan, and the ``waters of the United States'' definition. In all three cases, the costs and burdens placed on manufacturers as a result of these regulations are very significant and could make us significantly less competitive.    Manufacturers are committed to reducing ozone levels, and we've been doing so for decades. We've been reducing the emission that cause ozone by more than half since 1980. However, the progress we've made, it also means that both the low-hanging fruit and the high-hanging fruit are pretty much gone and so the controls that are needed to reduce ozone levels are already in place. In fact, with this rule, EPA can only identify about 35 percent of the controls and technologies needed to achieve this new 65-parts-per-billion standard. You heard that right. A solid two-third of the controls that will be needed to comply to this are called unknown controls. We don't know what they are.    Economic analysis of this new standard shows that it would be the most expensive regulation in history. Second place isn't even close. It would cost about $140 billion per year, about $1.7 trillion over the next 23 years, placing the equivalent of 1.4 million jobs in jeopardy each year and reducing annual household income--consumption--I'm sorry--by an average of about $830 per year. Very few low-cost control options exist for this tightening of ozone standard, so if controls aren't invented in time, what winds up happening is, manufacturers are forced to consider scrapping equipment, scrapping existing plants, replacing them, or just plain old shutting them down. And then there's nonattainment for ozone, which is essentially a synonym for no growth. There has to be a better way for this than this, and really there is. The current standard is only being implemented. It's going to drive ozone precursor emissions, the emissions that cause ozone, down by another 36 percent over the next decade. We believe we should let that standard work before moving the chains one more time.    On climate, we're committing to addressing climate change through improved energy efficiency, greater sustainability and reducing our greenhouse gas emissions. We've done that. We reduced our emissions ten percent over the past decade, but our competitiveness is threatened by the Clean Power Plan as it's currently drafted. Independent analysis of this rule places total compliance costs as high as about $366 billion through 2031. Forty-three states could experience double-digit electricity prices. That's very difficult for us as we are major, major energy users. And even worse, many sectors in my membership, manufacturing, are due to get follow-on regulations under the Act that will be modeled off of this one, meaning we're going to be hit twice.    We believe EPA needs to fix this rule. We agree that adoption of a strong and fair international climate agreement should be a priority, but we also must be very careful not to lock into place policies that will send production and emissions overseas if the rest of the world doesn't play by those same rules in Paris in December.    Finally, manufacturers are disappointed with the final Waters of the United States regulation. We would welcome a clear rule that resolves disagreement over scope of the Clean Water Act. Instead, we ended up with a final regulation that fails to do this. It fails to clear up the problems and may have even created new ones. The regulation certainly expands the scope of the Clean Water Act to areas that are not even wet, and it fails to provide clear exclusions as to what actually qualifies. We're going to face, manufacturers are going to face increased uncertainty, permitting costs, and supply-and consumer-chain disruptions. Ambiguities in the new regulation will give rise to third-party lawsuits, even in cases where EPA agrees with us and believes that it is not a water of the United States.    I assure you, we do not enjoy having to have an adversarial position to the EPA on these regulations. We prefer to work with them as a partner toward a shared goal of protecting the environment. However, we desperately need the EPA to choose a different regulatory path.    Sadly, we are nearing the time where legislation may be our only hope, and we ask this Committee for its help in that pursuit.    Thank you.</t>
   </si>
   <si>
@@ -169,6 +196,12 @@
     <t>400343</t>
   </si>
   <si>
+    <t>Rohrabacher</t>
+  </si>
+  <si>
+    <t>Dana</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Rohrabacher. Years ago, when I was in high school, which seems, really, I guess it was in another century, I remember when I was in Los Angeles when in high school, and we were not permitted to go out and do strenuous exercises because the pollution levels in Los Angeles were so high that perhaps once or twice a week they called a pollution emergency. Today, I think it happens once or twice a year, so there has been a dramatic reduction in the air pollution, at least in southern California, and I take it from the testimony that we've heard that that's true throughout the rest of the country as well.    We have to attribute that to the fact that there has been regulation that has been successful, and those of who have a natural inclination against regulation need to be honest about that, and the question is, is whether or not we have come to a point or when we did come to that point where such regulation actually does not clean the air but there are natural sources of pollution when you have to want to maintain a certain standard of living for people. If we're going to have civilization, there will be-- manufacturing will take place. If you do not have manufacturing, people will get sick for other reasons other than just the air.    The question is for you, Dr. Paulson. Has there been a decrease in the number of illnesses, air-pollution-related illnesses that has been recorded in these last 10, 15 years as the pollution level's gone down?</t>
   </si>
   <si>
@@ -265,6 +298,12 @@
     <t>412614</t>
   </si>
   <si>
+    <t>Knight</t>
+  </si>
+  <si>
+    <t>Steve</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Knight. Thank you, Mr. Chair.    I would go on a line of questioning of kind of what we've done in California. I think that my statement would be that California has probably gone about this as stringent as any state in the union as far as our clean air, clean water, clean energy, clean everything that we have done, not just of course on EPA standards because everyone has to go along with that but what the legislature has done in California to go about this.    So I guess my questions would be, and we can start with Mr. Kerr, that we have seen a loss in the last ten years of about 80,000 manufacturing jobs in California due in part to what we have done in California, not just by our regulations but what we have mandated on business and how they can interact with the air and the water in California. Do you think that--and I think Mr. Rohrabacher was going down the right line of questioning. Do you think we have hit a line in the road where if we go too far, then we're not going to just continue to hemorrhage jobs but America and many parts of America will be so uncompetitive that businesses' only choice will be to look elsewhere.</t>
   </si>
   <si>
@@ -292,6 +331,12 @@
     <t>412501</t>
   </si>
   <si>
+    <t>Bonamici</t>
+  </si>
+  <si>
+    <t>Suzanne</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Bonamici. Thank you very much, Mr. Chairman, and I'm going to follow up on the discussion we were just having, and Mr. Chairman, you mentioned this in your opening statement too about diminishing the competitiveness of U.S. businesses, and we hear these claims that the Clean Power Plan or other environmental laws are going to kill jobs, hurt the economy. There's a suggestion that our businesses will go overseas.    I just read this morning that Ikea just pledged a billion euros, which is $1.13 billion, to help slow climate change through renewable energy and steps to help poor nations cope with climate change. They said this is good for customers, good for the climate, and good for their company. So they found that customers actually value environmental responsibility, and I suggest that we look at that and what our customers value.    And I also want to talk about how the numbers speak for themselves. The Union of Concerned Scientists just released an analysis that shows that most states are already making significant progress toward cutting carbon emissions from power plants, and according to that analysis, 31 states including my State of Oregon are already more than halfway toward meeting the 2020 benchmarks set out by the EPA under the Clean Power Plan. All but four states have already made decisions that will help cut their power plant emissions. Fourteen states including California, Kentucky, Ohio and New York are already ahead of the emission rate reduction trajectory because of current carbon-cutting decisions and actions.    I find this very encouraging and again highlights how the environmental regulations can bring about positive results. Mr. Chairman, I ask unanimous consent to enter this analysis into the record.</t>
   </si>
   <si>
@@ -319,6 +364,12 @@
     <t>412655</t>
   </si>
   <si>
+    <t>Babin</t>
+  </si>
+  <si>
+    <t>Brian</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Babin. Yes, sir. Thank you very much, Mr. Chairman, and thank you to all you witnesses for being here.    The EPA Administrator, Ms. McCarthy, Gina McCarthy, wrote an op-ed recently saying that the Agency's air standards attract new business, new investment and new jobs. I don't think that Administrator McCarthy is living in the same world as the rest of us.    I represent the 36th District in the State of Texas, and we have one of the largest numbers of petrochemical plants and refineries in the country. Most of my district is not in attainment with these new regulations. I will also add that neither is Yellowstone National Park in attainment with these new regulations.    There is no concrete evidence to support the lower standard for ozone that the EPA is calling for, not to mention the cost that is associated with it, given the strenuous economic times. I would now ask for a slid be placed on the screen to describe my district, the State of Texas, District 36. We have the largest manufacturing industry in the State of Texas in the chemical and refining industry. We directly employ or indirectly employ over 10,000 people down there in this portion of my district, and we pay $934 million in wages in this district with an average wage of nearly $100,000.    These proposed new rules promise to be the most expensive regulations in the history of the United States, likely costing us thousands of jobs and prolonging a recession. This is bureaucratic overreach in the extreme.    I would ask Mr. Kovacs and Mr. Eisenberg whether this is worth putting all of this at risk with these new regulations. Mr. Kovacs?</t>
   </si>
   <si>
@@ -340,6 +391,12 @@
     <t>412657</t>
   </si>
   <si>
+    <t>Beyer</t>
+  </si>
+  <si>
+    <t>Donald</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Beyer. Thank you, Mr. Chairman.    Mr. Chairman, Mr. Eisenberg and Mr. Kovacs both cited a study prepared on behalf of NAM in their written testimonies, and this study estimates the compliance costs associated with an ozone standard of 65 parts per billion.    I have an article from Bloomberg News that discusses NAM's study and a number of groups criticize the study and its methodology, saying that the study doesn't include an estimate of the anticipated benefits of the 65 standard, it overestimates compliance costs, and that it makes ``unrealistic assumptions.'' For example, the use of the Cash for Clunkers program, with which I'm very familiar, is used as the basis for estimating the cost of unknown pollution controls. This is described as ``insane and unmoored from economic reality.''    Also, it's important to understand well what the new standards might cost and the savings that might generate. Please allow me to point out that the 2001 Supreme Court, the same court that put George W. Bush in the White House in Bush v. Gore ruled that the Clean Air Act prohibits the EPA from considering the cost of compliance with setting National Ambient Air Quality Standards.    So Mr. Chairman, I ask unanimous consent to have this article entered into the record.</t>
   </si>
   <si>
@@ -370,6 +427,12 @@
     <t>412319</t>
   </si>
   <si>
+    <t>Tonko</t>
+  </si>
+  <si>
+    <t>Paul</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Tonko. Thank you, Mr. Chair, and thank you to our witnesses.</t>
   </si>
   <si>
@@ -397,6 +460,12 @@
     <t>412624</t>
   </si>
   <si>
+    <t>Loudermilk</t>
+  </si>
+  <si>
+    <t>Barry</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Loudermilk. Thank you, Mr. Chairman.    One of the issues that we run into I've found out in my brief time here in Congress is getting down to the true facts, and part of getting the true facts in science is that getting away from presenting facts that justify an end but making your end justified off the facts that are before you.    I live ten miles from one of the largest coal-fired plants in the nation, and Mr. Chairman, to your point earlier, this plant, you really can't see the smoke when it comes out, but what comes out is white but it's steam that's used to cool that.    But Dr. Paulson, you brought up something that was concerning to me because I live ten miles from one of the largest coal-fired plants in the nation. My one-year-old granddaughter lives about 11 miles from it. And you brought up in your statement, you said that outdoor air pollution is linked to respiratory problems in children including decreased lung function, coughing, wheezing, more frequent respiratory illnesses and so on, and that is true. A quick check--you are absolutely right. It is linked to air pollution. But Dr. Paulson, can you tell me what is the greatest contributing factor to asthma worldwide according to the World Health Organization?</t>
   </si>
   <si>
@@ -424,6 +493,12 @@
     <t>400441</t>
   </si>
   <si>
+    <t>Neugebauer</t>
+  </si>
+  <si>
+    <t>Randy</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Neugebauer. Thank you, Mr. Chairman.    Mr. Kerr, you know, since 1986, EPA and the Corps has only had jurisdiction over the wetlands adjacent to other jurisdictional waters. Can you explain in detail the rule's new concept of adjacent waters?</t>
   </si>
   <si>
@@ -466,6 +541,9 @@
     <t>412574</t>
   </si>
   <si>
+    <t>Weber</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Weber. Thank you.    Mr. Kerr, you said earlier isolated wetlands were not regulated by the EPA according to a Supreme Court case. Can you give me the name of that case?</t>
   </si>
   <si>
@@ -595,6 +673,12 @@
     <t>412608</t>
   </si>
   <si>
+    <t>Palmer</t>
+  </si>
+  <si>
+    <t>Gary</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Palmer. Thank you, Mr. Chairman.    I want to start out by addressing air quality, and I have here the air quality section from a report done by the Alabama Policy Institute that shows that since 1980, our GDP has increased by 467 percent, vehicle miles traveled up 94 percent. The population's grown by 38 percent. Energy consumption is up 22 percent. But emissions are down 50 percent. When you look at the air quality index and the percentage of days per year that the air quality index exceeded the standards, we went from about 24 percent in 1980 to about two percent. So there's no question that we have done an excellent job of improving air quality yet the asthma rate has gone up. I think that's been mentioned several times.    I'd also like to point out that there might be other factors that cause asthma rates to have gone up, and for instance, here's a report from UCLA, University of California, Los Angeles, in case anyone wonders what the acronym is. It says asthma disproportionately affects low-income populations, and the percentages are astonishing, frankly, that it would have such a higher prevalence among low-income families when I think--and I'll ask my colleague from California, Mr. Knight, I believe that higher-income families breathe the same air as the low-income families. So, Mr. Chairman, I'd like to enter into the record the article and the section from the report on air quality, and I'll also point out----</t>
   </si>
   <si>
@@ -641,6 +725,12 @@
   </si>
   <si>
     <t>412634</t>
+  </si>
+  <si>
+    <t>Moolenaar</t>
+  </si>
+  <si>
+    <t>John</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Moolenaar. Thank you, Mr. Chairman.    Mr. Kerr, I'd just like to continue following up with you and then also talk to Mr. Kovacs and Mr. Eisenberg on some of the Waters of the United States issues. What in your judgment--there were some court cases. There's the Clean Air Act and there was an effort by the EPA to clarify its jurisdiction. Is that really how we've gotten to this point?</t>
@@ -1034,7 +1124,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H208"/>
+  <dimension ref="A1:I208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1042,7 +1132,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1064,4973 +1154,5855 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
       <c r="H3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
       <c r="H5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
       <c r="H10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>29</v>
+      </c>
+      <c r="G12" t="s">
+        <v>30</v>
+      </c>
       <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="I12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G15" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
       <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G17" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
       <c r="H18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>17</v>
-      </c>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G19" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" t="s"/>
+      <c r="I19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
       <c r="H20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G21" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
       <c r="H22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>17</v>
-      </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G23" t="s">
+        <v>24</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
       <c r="H24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G25" t="s"/>
-      <c r="H25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G25" t="s">
+        <v>27</v>
+      </c>
+      <c r="H25" t="s"/>
+      <c r="I25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>13</v>
+      </c>
       <c r="H26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>17</v>
-      </c>
-      <c r="G27" t="s"/>
-      <c r="H27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G27" t="s">
+        <v>27</v>
+      </c>
+      <c r="H27" t="s"/>
+      <c r="I27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G28" t="s">
+        <v>13</v>
+      </c>
       <c r="H28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>17</v>
-      </c>
-      <c r="G29" t="s"/>
-      <c r="H29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G29" t="s">
+        <v>35</v>
+      </c>
+      <c r="H29" t="s"/>
+      <c r="I29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
+        <v>13</v>
+      </c>
       <c r="H30" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>17</v>
-      </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G31" t="s">
+        <v>35</v>
+      </c>
+      <c r="H31" t="s"/>
+      <c r="I31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G32" t="s">
+        <v>13</v>
+      </c>
       <c r="H32" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>17</v>
-      </c>
-      <c r="G33" t="s"/>
-      <c r="H33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G33" t="s">
+        <v>35</v>
+      </c>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G34" t="s">
+        <v>13</v>
+      </c>
       <c r="H34" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>17</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G35" t="s">
+        <v>27</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>17</v>
-      </c>
-      <c r="G36" t="s"/>
-      <c r="H36" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G36" t="s">
+        <v>27</v>
+      </c>
+      <c r="H36" t="s"/>
+      <c r="I36" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G37" t="s">
+        <v>13</v>
+      </c>
       <c r="H37" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I37" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>50</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="G38" t="s">
+        <v>60</v>
+      </c>
       <c r="H38" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>61</v>
+      </c>
+      <c r="I38" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>17</v>
-      </c>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G39" t="s">
+        <v>27</v>
+      </c>
+      <c r="H39" t="s"/>
+      <c r="I39" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>50</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="G40" t="s">
+        <v>60</v>
+      </c>
       <c r="H40" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>61</v>
+      </c>
+      <c r="I40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>17</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G41" t="s">
+        <v>27</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>50</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="G42" t="s">
+        <v>60</v>
+      </c>
       <c r="H42" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>61</v>
+      </c>
+      <c r="I42" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>17</v>
-      </c>
-      <c r="G43" t="s"/>
-      <c r="H43" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G43" t="s">
+        <v>27</v>
+      </c>
+      <c r="H43" t="s"/>
+      <c r="I43" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>50</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="G44" t="s">
+        <v>60</v>
+      </c>
       <c r="H44" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>61</v>
+      </c>
+      <c r="I44" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>17</v>
-      </c>
-      <c r="G45" t="s"/>
-      <c r="H45" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G45" t="s">
+        <v>27</v>
+      </c>
+      <c r="H45" t="s"/>
+      <c r="I45" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>50</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="G46" t="s">
+        <v>60</v>
+      </c>
       <c r="H46" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>61</v>
+      </c>
+      <c r="I46" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>17</v>
-      </c>
-      <c r="G47" t="s"/>
-      <c r="H47" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G47" t="s">
+        <v>27</v>
+      </c>
+      <c r="H47" t="s"/>
+      <c r="I47" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>50</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="G48" t="s">
+        <v>60</v>
+      </c>
       <c r="H48" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="49" spans="1:8">
+      <c r="I48" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>17</v>
-      </c>
-      <c r="G49" t="s"/>
-      <c r="H49" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G49" t="s">
+        <v>24</v>
+      </c>
+      <c r="H49" t="s"/>
+      <c r="I49" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>50</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="G50" t="s">
+        <v>60</v>
+      </c>
       <c r="H50" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>61</v>
+      </c>
+      <c r="I50" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>11</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G51" t="s">
+        <v>13</v>
+      </c>
       <c r="H51" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I51" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>50</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="G52" t="s">
+        <v>60</v>
+      </c>
       <c r="H52" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>61</v>
+      </c>
+      <c r="I52" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>11</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G53" t="s">
+        <v>13</v>
+      </c>
       <c r="H53" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I53" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>23</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>29</v>
+      </c>
+      <c r="G54" t="s">
+        <v>30</v>
+      </c>
       <c r="H54" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="I54" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>11</v>
-      </c>
-      <c r="G55" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G55" t="s">
+        <v>13</v>
+      </c>
       <c r="H55" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I55" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>23</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>29</v>
+      </c>
+      <c r="G56" t="s">
+        <v>30</v>
+      </c>
       <c r="H56" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="I56" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>11</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G57" t="s">
+        <v>13</v>
+      </c>
       <c r="H57" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I57" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>23</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>29</v>
+      </c>
+      <c r="G58" t="s">
+        <v>30</v>
+      </c>
       <c r="H58" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="I58" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>11</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G59" t="s">
+        <v>13</v>
+      </c>
       <c r="H59" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I59" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>23</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>29</v>
+      </c>
+      <c r="G60" t="s">
+        <v>30</v>
+      </c>
       <c r="H60" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="I60" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>11</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G61" t="s">
+        <v>13</v>
+      </c>
       <c r="H61" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I61" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>23</v>
-      </c>
-      <c r="G62" t="s"/>
+        <v>29</v>
+      </c>
+      <c r="G62" t="s">
+        <v>30</v>
+      </c>
       <c r="H62" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="I62" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>11</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G63" t="s">
+        <v>13</v>
+      </c>
       <c r="H63" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I63" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>23</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>29</v>
+      </c>
+      <c r="G64" t="s">
+        <v>30</v>
+      </c>
       <c r="H64" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="I64" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>11</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G65" t="s">
+        <v>13</v>
+      </c>
       <c r="H65" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I65" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>23</v>
-      </c>
-      <c r="G66" t="s"/>
+        <v>29</v>
+      </c>
+      <c r="G66" t="s">
+        <v>30</v>
+      </c>
       <c r="H66" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="I66" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>11</v>
-      </c>
-      <c r="G67" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G67" t="s">
+        <v>13</v>
+      </c>
       <c r="H67" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="68" spans="1:8">
+      <c r="I67" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>23</v>
-      </c>
-      <c r="G68" t="s"/>
+        <v>29</v>
+      </c>
+      <c r="G68" t="s">
+        <v>30</v>
+      </c>
       <c r="H68" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>31</v>
+      </c>
+      <c r="I68" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>11</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G69" t="s">
+        <v>13</v>
+      </c>
       <c r="H69" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I69" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>82</v>
-      </c>
-      <c r="G70" t="s"/>
+        <v>93</v>
+      </c>
+      <c r="G70" t="s">
+        <v>94</v>
+      </c>
       <c r="H70" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>95</v>
+      </c>
+      <c r="I70" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>17</v>
-      </c>
-      <c r="G71" t="s"/>
-      <c r="H71" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G71" t="s">
+        <v>21</v>
+      </c>
+      <c r="H71" t="s"/>
+      <c r="I71" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>17</v>
-      </c>
-      <c r="G72" t="s"/>
-      <c r="H72" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G72" t="s">
+        <v>24</v>
+      </c>
+      <c r="H72" t="s"/>
+      <c r="I72" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>82</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>93</v>
+      </c>
+      <c r="G73" t="s">
+        <v>94</v>
+      </c>
       <c r="H73" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>95</v>
+      </c>
+      <c r="I73" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>17</v>
-      </c>
-      <c r="G74" t="s"/>
-      <c r="H74" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G74" t="s">
+        <v>35</v>
+      </c>
+      <c r="H74" t="s"/>
+      <c r="I74" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>17</v>
-      </c>
-      <c r="G75" t="s"/>
-      <c r="H75" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G75" t="s">
+        <v>27</v>
+      </c>
+      <c r="H75" t="s"/>
+      <c r="I75" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>82</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>93</v>
+      </c>
+      <c r="G76" t="s">
+        <v>94</v>
+      </c>
       <c r="H76" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>95</v>
+      </c>
+      <c r="I76" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>11</v>
-      </c>
-      <c r="G77" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G77" t="s">
+        <v>13</v>
+      </c>
       <c r="H77" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I77" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>91</v>
-      </c>
-      <c r="G78" t="s"/>
+        <v>104</v>
+      </c>
+      <c r="G78" t="s">
+        <v>105</v>
+      </c>
       <c r="H78" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>106</v>
+      </c>
+      <c r="I78" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>11</v>
-      </c>
-      <c r="G79" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G79" t="s">
+        <v>13</v>
+      </c>
       <c r="H79" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="80" spans="1:8">
+      <c r="I79" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>91</v>
-      </c>
-      <c r="G80" t="s"/>
+        <v>104</v>
+      </c>
+      <c r="G80" t="s">
+        <v>105</v>
+      </c>
       <c r="H80" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>106</v>
+      </c>
+      <c r="I80" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>17</v>
-      </c>
-      <c r="G81" t="s"/>
-      <c r="H81" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G81" t="s">
+        <v>27</v>
+      </c>
+      <c r="H81" t="s"/>
+      <c r="I81" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>91</v>
-      </c>
-      <c r="G82" t="s"/>
+        <v>104</v>
+      </c>
+      <c r="G82" t="s">
+        <v>105</v>
+      </c>
       <c r="H82" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>106</v>
+      </c>
+      <c r="I82" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>17</v>
-      </c>
-      <c r="G83" t="s"/>
-      <c r="H83" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G83" t="s">
+        <v>27</v>
+      </c>
+      <c r="H83" t="s"/>
+      <c r="I83" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>91</v>
-      </c>
-      <c r="G84" t="s"/>
+        <v>104</v>
+      </c>
+      <c r="G84" t="s">
+        <v>105</v>
+      </c>
       <c r="H84" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>106</v>
+      </c>
+      <c r="I84" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>11</v>
-      </c>
-      <c r="G85" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G85" t="s">
+        <v>13</v>
+      </c>
       <c r="H85" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I85" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>11</v>
-      </c>
-      <c r="G86" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G86" t="s">
+        <v>13</v>
+      </c>
       <c r="H86" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I86" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>100</v>
-      </c>
-      <c r="G87" t="s"/>
+        <v>115</v>
+      </c>
+      <c r="G87" t="s">
+        <v>116</v>
+      </c>
       <c r="H87" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>117</v>
+      </c>
+      <c r="I87" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>17</v>
-      </c>
-      <c r="G88" t="s"/>
-      <c r="H88" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G88" t="s">
+        <v>24</v>
+      </c>
+      <c r="H88" t="s"/>
+      <c r="I88" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>100</v>
-      </c>
-      <c r="G89" t="s"/>
+        <v>115</v>
+      </c>
+      <c r="G89" t="s">
+        <v>116</v>
+      </c>
       <c r="H89" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>117</v>
+      </c>
+      <c r="I89" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>17</v>
-      </c>
-      <c r="G90" t="s"/>
-      <c r="H90" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G90" t="s">
+        <v>35</v>
+      </c>
+      <c r="H90" t="s"/>
+      <c r="I90" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>100</v>
-      </c>
-      <c r="G91" t="s"/>
+        <v>115</v>
+      </c>
+      <c r="G91" t="s">
+        <v>116</v>
+      </c>
       <c r="H91" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>117</v>
+      </c>
+      <c r="I91" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>11</v>
-      </c>
-      <c r="G92" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G92" t="s">
+        <v>13</v>
+      </c>
       <c r="H92" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I92" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>107</v>
-      </c>
-      <c r="G93" t="s"/>
+        <v>124</v>
+      </c>
+      <c r="G93" t="s">
+        <v>125</v>
+      </c>
       <c r="H93" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>126</v>
+      </c>
+      <c r="I93" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>11</v>
-      </c>
-      <c r="G94" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G94" t="s">
+        <v>13</v>
+      </c>
       <c r="H94" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I94" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>17</v>
-      </c>
-      <c r="G95" t="s"/>
-      <c r="H95" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G95" t="s">
+        <v>27</v>
+      </c>
+      <c r="H95" t="s"/>
+      <c r="I95" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>107</v>
-      </c>
-      <c r="G96" t="s"/>
+        <v>124</v>
+      </c>
+      <c r="G96" t="s">
+        <v>125</v>
+      </c>
       <c r="H96" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>126</v>
+      </c>
+      <c r="I96" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>17</v>
-      </c>
-      <c r="G97" t="s"/>
-      <c r="H97" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G97" t="s">
+        <v>24</v>
+      </c>
+      <c r="H97" t="s"/>
+      <c r="I97" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>11</v>
-      </c>
-      <c r="G98" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G98" t="s">
+        <v>13</v>
+      </c>
       <c r="H98" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I98" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>17</v>
-      </c>
-      <c r="G99" t="s"/>
-      <c r="H99" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G99" t="s">
+        <v>24</v>
+      </c>
+      <c r="H99" t="s"/>
+      <c r="I99" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>17</v>
-      </c>
-      <c r="G100" t="s"/>
-      <c r="H100" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G100" t="s">
+        <v>35</v>
+      </c>
+      <c r="H100" t="s"/>
+      <c r="I100" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>11</v>
-      </c>
-      <c r="G101" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G101" t="s">
+        <v>13</v>
+      </c>
       <c r="H101" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I101" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>117</v>
-      </c>
-      <c r="G102" t="s"/>
+        <v>136</v>
+      </c>
+      <c r="G102" t="s">
+        <v>137</v>
+      </c>
       <c r="H102" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>138</v>
+      </c>
+      <c r="I102" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>11</v>
-      </c>
-      <c r="G103" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G103" t="s">
+        <v>13</v>
+      </c>
       <c r="H103" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I103" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>117</v>
-      </c>
-      <c r="G104" t="s"/>
+        <v>136</v>
+      </c>
+      <c r="G104" t="s">
+        <v>137</v>
+      </c>
       <c r="H104" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>138</v>
+      </c>
+      <c r="I104" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>17</v>
-      </c>
-      <c r="G105" t="s"/>
-      <c r="H105" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G105" t="s">
+        <v>27</v>
+      </c>
+      <c r="H105" t="s"/>
+      <c r="I105" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>117</v>
-      </c>
-      <c r="G106" t="s"/>
+        <v>136</v>
+      </c>
+      <c r="G106" t="s">
+        <v>137</v>
+      </c>
       <c r="H106" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>138</v>
+      </c>
+      <c r="I106" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>17</v>
-      </c>
-      <c r="G107" t="s"/>
-      <c r="H107" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G107" t="s">
+        <v>27</v>
+      </c>
+      <c r="H107" t="s"/>
+      <c r="I107" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>117</v>
-      </c>
-      <c r="G108" t="s"/>
+        <v>136</v>
+      </c>
+      <c r="G108" t="s">
+        <v>137</v>
+      </c>
       <c r="H108" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>138</v>
+      </c>
+      <c r="I108" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>11</v>
-      </c>
-      <c r="G109" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G109" t="s">
+        <v>13</v>
+      </c>
       <c r="H109" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I109" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>126</v>
-      </c>
-      <c r="G110" t="s"/>
+        <v>147</v>
+      </c>
+      <c r="G110" t="s">
+        <v>148</v>
+      </c>
       <c r="H110" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>149</v>
+      </c>
+      <c r="I110" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>17</v>
-      </c>
-      <c r="G111" t="s"/>
-      <c r="H111" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G111" t="s">
+        <v>27</v>
+      </c>
+      <c r="H111" t="s"/>
+      <c r="I111" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>126</v>
-      </c>
-      <c r="G112" t="s"/>
+        <v>147</v>
+      </c>
+      <c r="G112" t="s">
+        <v>148</v>
+      </c>
       <c r="H112" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>149</v>
+      </c>
+      <c r="I112" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>17</v>
-      </c>
-      <c r="G113" t="s"/>
-      <c r="H113" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G113" t="s">
+        <v>27</v>
+      </c>
+      <c r="H113" t="s"/>
+      <c r="I113" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>126</v>
-      </c>
-      <c r="G114" t="s"/>
+        <v>147</v>
+      </c>
+      <c r="G114" t="s">
+        <v>148</v>
+      </c>
       <c r="H114" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>149</v>
+      </c>
+      <c r="I114" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>17</v>
-      </c>
-      <c r="G115" t="s"/>
-      <c r="H115" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G115" t="s">
+        <v>35</v>
+      </c>
+      <c r="H115" t="s"/>
+      <c r="I115" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>126</v>
-      </c>
-      <c r="G116" t="s"/>
+        <v>147</v>
+      </c>
+      <c r="G116" t="s">
+        <v>148</v>
+      </c>
       <c r="H116" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>149</v>
+      </c>
+      <c r="I116" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>11</v>
-      </c>
-      <c r="G117" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G117" t="s">
+        <v>13</v>
+      </c>
       <c r="H117" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I117" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>135</v>
-      </c>
-      <c r="G118" t="s"/>
+        <v>158</v>
+      </c>
+      <c r="G118" t="s">
+        <v>159</v>
+      </c>
       <c r="H118" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>160</v>
+      </c>
+      <c r="I118" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>17</v>
-      </c>
-      <c r="G119" t="s"/>
-      <c r="H119" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G119" t="s">
+        <v>21</v>
+      </c>
+      <c r="H119" t="s"/>
+      <c r="I119" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>135</v>
-      </c>
-      <c r="G120" t="s"/>
+        <v>158</v>
+      </c>
+      <c r="G120" t="s">
+        <v>159</v>
+      </c>
       <c r="H120" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>160</v>
+      </c>
+      <c r="I120" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>17</v>
-      </c>
-      <c r="G121" t="s"/>
-      <c r="H121" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G121" t="s">
+        <v>21</v>
+      </c>
+      <c r="H121" t="s"/>
+      <c r="I121" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>135</v>
-      </c>
-      <c r="G122" t="s"/>
+        <v>158</v>
+      </c>
+      <c r="G122" t="s">
+        <v>159</v>
+      </c>
       <c r="H122" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>160</v>
+      </c>
+      <c r="I122" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>17</v>
-      </c>
-      <c r="G123" t="s"/>
-      <c r="H123" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G123" t="s">
+        <v>21</v>
+      </c>
+      <c r="H123" t="s"/>
+      <c r="I123" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>135</v>
-      </c>
-      <c r="G124" t="s"/>
+        <v>158</v>
+      </c>
+      <c r="G124" t="s">
+        <v>159</v>
+      </c>
       <c r="H124" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>160</v>
+      </c>
+      <c r="I124" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>17</v>
-      </c>
-      <c r="G125" t="s"/>
-      <c r="H125" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G125" t="s">
+        <v>21</v>
+      </c>
+      <c r="H125" t="s"/>
+      <c r="I125" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>135</v>
-      </c>
-      <c r="G126" t="s"/>
+        <v>158</v>
+      </c>
+      <c r="G126" t="s">
+        <v>159</v>
+      </c>
       <c r="H126" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>160</v>
+      </c>
+      <c r="I126" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>17</v>
-      </c>
-      <c r="G127" t="s"/>
-      <c r="H127" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G127" t="s">
+        <v>21</v>
+      </c>
+      <c r="H127" t="s"/>
+      <c r="I127" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>135</v>
-      </c>
-      <c r="G128" t="s"/>
+        <v>158</v>
+      </c>
+      <c r="G128" t="s">
+        <v>159</v>
+      </c>
       <c r="H128" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>160</v>
+      </c>
+      <c r="I128" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>17</v>
-      </c>
-      <c r="G129" t="s"/>
-      <c r="H129" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G129" t="s">
+        <v>21</v>
+      </c>
+      <c r="H129" t="s"/>
+      <c r="I129" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>11</v>
-      </c>
-      <c r="G130" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G130" t="s">
+        <v>13</v>
+      </c>
       <c r="H130" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I130" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>149</v>
-      </c>
-      <c r="G131" t="s"/>
+        <v>174</v>
+      </c>
+      <c r="G131" t="s">
+        <v>175</v>
+      </c>
       <c r="H131" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>160</v>
+      </c>
+      <c r="I131" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>17</v>
-      </c>
-      <c r="G132" t="s"/>
-      <c r="H132" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G132" t="s">
+        <v>21</v>
+      </c>
+      <c r="H132" t="s"/>
+      <c r="I132" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>149</v>
-      </c>
-      <c r="G133" t="s"/>
+        <v>174</v>
+      </c>
+      <c r="G133" t="s">
+        <v>175</v>
+      </c>
       <c r="H133" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>160</v>
+      </c>
+      <c r="I133" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>17</v>
-      </c>
-      <c r="G134" t="s"/>
-      <c r="H134" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G134" t="s">
+        <v>21</v>
+      </c>
+      <c r="H134" t="s"/>
+      <c r="I134" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>149</v>
-      </c>
-      <c r="G135" t="s"/>
+        <v>174</v>
+      </c>
+      <c r="G135" t="s">
+        <v>175</v>
+      </c>
       <c r="H135" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>160</v>
+      </c>
+      <c r="I135" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>17</v>
-      </c>
-      <c r="G136" t="s"/>
-      <c r="H136" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G136" t="s">
+        <v>21</v>
+      </c>
+      <c r="H136" t="s"/>
+      <c r="I136" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>149</v>
-      </c>
-      <c r="G137" t="s"/>
+        <v>174</v>
+      </c>
+      <c r="G137" t="s">
+        <v>175</v>
+      </c>
       <c r="H137" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>160</v>
+      </c>
+      <c r="I137" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>17</v>
-      </c>
-      <c r="G138" t="s"/>
-      <c r="H138" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G138" t="s">
+        <v>24</v>
+      </c>
+      <c r="H138" t="s"/>
+      <c r="I138" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>149</v>
-      </c>
-      <c r="G139" t="s"/>
+        <v>174</v>
+      </c>
+      <c r="G139" t="s">
+        <v>175</v>
+      </c>
       <c r="H139" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>160</v>
+      </c>
+      <c r="I139" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F140" t="s">
-        <v>17</v>
-      </c>
-      <c r="G140" t="s"/>
-      <c r="H140" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G140" t="s">
+        <v>27</v>
+      </c>
+      <c r="H140" t="s"/>
+      <c r="I140" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F141" t="s">
-        <v>149</v>
-      </c>
-      <c r="G141" t="s"/>
+        <v>174</v>
+      </c>
+      <c r="G141" t="s">
+        <v>175</v>
+      </c>
       <c r="H141" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>160</v>
+      </c>
+      <c r="I141" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>17</v>
-      </c>
-      <c r="G142" t="s"/>
-      <c r="H142" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G142" t="s">
+        <v>35</v>
+      </c>
+      <c r="H142" t="s"/>
+      <c r="I142" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F143" t="s">
-        <v>149</v>
-      </c>
-      <c r="G143" t="s"/>
+        <v>174</v>
+      </c>
+      <c r="G143" t="s">
+        <v>175</v>
+      </c>
       <c r="H143" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>160</v>
+      </c>
+      <c r="I143" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F144" t="s">
-        <v>17</v>
-      </c>
-      <c r="G144" t="s"/>
-      <c r="H144" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G144" t="s">
+        <v>35</v>
+      </c>
+      <c r="H144" t="s"/>
+      <c r="I144" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F145" t="s">
-        <v>149</v>
-      </c>
-      <c r="G145" t="s"/>
+        <v>174</v>
+      </c>
+      <c r="G145" t="s">
+        <v>175</v>
+      </c>
       <c r="H145" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>160</v>
+      </c>
+      <c r="I145" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F146" t="s">
-        <v>17</v>
-      </c>
-      <c r="G146" t="s"/>
-      <c r="H146" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G146" t="s">
+        <v>35</v>
+      </c>
+      <c r="H146" t="s"/>
+      <c r="I146" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F147" t="s">
-        <v>149</v>
-      </c>
-      <c r="G147" t="s"/>
+        <v>174</v>
+      </c>
+      <c r="G147" t="s">
+        <v>175</v>
+      </c>
       <c r="H147" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>160</v>
+      </c>
+      <c r="I147" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F148" t="s">
-        <v>17</v>
-      </c>
-      <c r="G148" t="s"/>
-      <c r="H148" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G148" t="s">
+        <v>24</v>
+      </c>
+      <c r="H148" t="s"/>
+      <c r="I148" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F149" t="s">
-        <v>149</v>
-      </c>
-      <c r="G149" t="s"/>
+        <v>174</v>
+      </c>
+      <c r="G149" t="s">
+        <v>175</v>
+      </c>
       <c r="H149" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>160</v>
+      </c>
+      <c r="I149" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F150" t="s">
-        <v>17</v>
-      </c>
-      <c r="G150" t="s"/>
-      <c r="H150" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G150" t="s">
+        <v>24</v>
+      </c>
+      <c r="H150" t="s"/>
+      <c r="I150" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F151" t="s">
-        <v>149</v>
-      </c>
-      <c r="G151" t="s"/>
+        <v>174</v>
+      </c>
+      <c r="G151" t="s">
+        <v>175</v>
+      </c>
       <c r="H151" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>160</v>
+      </c>
+      <c r="I151" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F152" t="s">
-        <v>17</v>
-      </c>
-      <c r="G152" t="s"/>
-      <c r="H152" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G152" t="s">
+        <v>24</v>
+      </c>
+      <c r="H152" t="s"/>
+      <c r="I152" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F153" t="s">
-        <v>149</v>
-      </c>
-      <c r="G153" t="s"/>
+        <v>174</v>
+      </c>
+      <c r="G153" t="s">
+        <v>175</v>
+      </c>
       <c r="H153" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>160</v>
+      </c>
+      <c r="I153" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F154" t="s">
-        <v>17</v>
-      </c>
-      <c r="G154" t="s"/>
-      <c r="H154" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G154" t="s">
+        <v>24</v>
+      </c>
+      <c r="H154" t="s"/>
+      <c r="I154" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F155" t="s">
-        <v>149</v>
-      </c>
-      <c r="G155" t="s"/>
+        <v>174</v>
+      </c>
+      <c r="G155" t="s">
+        <v>175</v>
+      </c>
       <c r="H155" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>160</v>
+      </c>
+      <c r="I155" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F156" t="s">
-        <v>17</v>
-      </c>
-      <c r="G156" t="s"/>
-      <c r="H156" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G156" t="s">
+        <v>21</v>
+      </c>
+      <c r="H156" t="s"/>
+      <c r="I156" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F157" t="s">
-        <v>149</v>
-      </c>
-      <c r="G157" t="s"/>
+        <v>174</v>
+      </c>
+      <c r="G157" t="s">
+        <v>175</v>
+      </c>
       <c r="H157" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+        <v>160</v>
+      </c>
+      <c r="I157" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F158" t="s">
-        <v>17</v>
-      </c>
-      <c r="G158" t="s"/>
-      <c r="H158" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G158" t="s">
+        <v>27</v>
+      </c>
+      <c r="H158" t="s"/>
+      <c r="I158" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F159" t="s">
-        <v>149</v>
-      </c>
-      <c r="G159" t="s"/>
+        <v>174</v>
+      </c>
+      <c r="G159" t="s">
+        <v>175</v>
+      </c>
       <c r="H159" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+        <v>160</v>
+      </c>
+      <c r="I159" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F160" t="s">
-        <v>17</v>
-      </c>
-      <c r="G160" t="s"/>
-      <c r="H160" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G160" t="s">
+        <v>35</v>
+      </c>
+      <c r="H160" t="s"/>
+      <c r="I160" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F161" t="s">
-        <v>149</v>
-      </c>
-      <c r="G161" t="s"/>
+        <v>174</v>
+      </c>
+      <c r="G161" t="s">
+        <v>175</v>
+      </c>
       <c r="H161" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+        <v>160</v>
+      </c>
+      <c r="I161" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F162" t="s">
-        <v>17</v>
-      </c>
-      <c r="G162" t="s"/>
-      <c r="H162" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G162" t="s">
+        <v>35</v>
+      </c>
+      <c r="H162" t="s"/>
+      <c r="I162" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F163" t="s">
-        <v>149</v>
-      </c>
-      <c r="G163" t="s"/>
+        <v>174</v>
+      </c>
+      <c r="G163" t="s">
+        <v>175</v>
+      </c>
       <c r="H163" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
+        <v>160</v>
+      </c>
+      <c r="I163" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F164" t="s">
-        <v>17</v>
-      </c>
-      <c r="G164" t="s"/>
-      <c r="H164" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G164" t="s">
+        <v>35</v>
+      </c>
+      <c r="H164" t="s"/>
+      <c r="I164" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F165" t="s">
-        <v>149</v>
-      </c>
-      <c r="G165" t="s"/>
+        <v>174</v>
+      </c>
+      <c r="G165" t="s">
+        <v>175</v>
+      </c>
       <c r="H165" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+        <v>160</v>
+      </c>
+      <c r="I165" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F166" t="s">
-        <v>17</v>
-      </c>
-      <c r="G166" t="s"/>
-      <c r="H166" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G166" t="s">
+        <v>27</v>
+      </c>
+      <c r="H166" t="s"/>
+      <c r="I166" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F167" t="s">
-        <v>149</v>
-      </c>
-      <c r="G167" t="s"/>
+        <v>174</v>
+      </c>
+      <c r="G167" t="s">
+        <v>175</v>
+      </c>
       <c r="H167" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
+        <v>160</v>
+      </c>
+      <c r="I167" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F168" t="s">
-        <v>17</v>
-      </c>
-      <c r="G168" t="s"/>
-      <c r="H168" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G168" t="s">
+        <v>27</v>
+      </c>
+      <c r="H168" t="s"/>
+      <c r="I168" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F169" t="s">
-        <v>149</v>
-      </c>
-      <c r="G169" t="s"/>
+        <v>174</v>
+      </c>
+      <c r="G169" t="s">
+        <v>175</v>
+      </c>
       <c r="H169" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
+        <v>160</v>
+      </c>
+      <c r="I169" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F170" t="s">
-        <v>17</v>
-      </c>
-      <c r="G170" t="s"/>
-      <c r="H170" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G170" t="s">
+        <v>24</v>
+      </c>
+      <c r="H170" t="s"/>
+      <c r="I170" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F171" t="s">
-        <v>149</v>
-      </c>
-      <c r="G171" t="s"/>
+        <v>174</v>
+      </c>
+      <c r="G171" t="s">
+        <v>175</v>
+      </c>
       <c r="H171" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
+        <v>160</v>
+      </c>
+      <c r="I171" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F172" t="s">
-        <v>17</v>
-      </c>
-      <c r="G172" t="s"/>
-      <c r="H172" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G172" t="s">
+        <v>21</v>
+      </c>
+      <c r="H172" t="s"/>
+      <c r="I172" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F173" t="s">
-        <v>149</v>
-      </c>
-      <c r="G173" t="s"/>
+        <v>174</v>
+      </c>
+      <c r="G173" t="s">
+        <v>175</v>
+      </c>
       <c r="H173" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
+        <v>160</v>
+      </c>
+      <c r="I173" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F174" t="s">
-        <v>17</v>
-      </c>
-      <c r="G174" t="s"/>
-      <c r="H174" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G174" t="s">
+        <v>35</v>
+      </c>
+      <c r="H174" t="s"/>
+      <c r="I174" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F175" t="s">
-        <v>149</v>
-      </c>
-      <c r="G175" t="s"/>
+        <v>174</v>
+      </c>
+      <c r="G175" t="s">
+        <v>175</v>
+      </c>
       <c r="H175" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
+        <v>160</v>
+      </c>
+      <c r="I175" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F176" t="s">
-        <v>11</v>
-      </c>
-      <c r="G176" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G176" t="s">
+        <v>13</v>
+      </c>
       <c r="H176" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I176" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F177" t="s">
-        <v>192</v>
-      </c>
-      <c r="G177" t="s"/>
+        <v>218</v>
+      </c>
+      <c r="G177" t="s">
+        <v>219</v>
+      </c>
       <c r="H177" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
+        <v>220</v>
+      </c>
+      <c r="I177" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F178" t="s">
-        <v>11</v>
-      </c>
-      <c r="G178" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G178" t="s">
+        <v>13</v>
+      </c>
       <c r="H178" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I178" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F179" t="s">
-        <v>192</v>
-      </c>
-      <c r="G179" t="s"/>
+        <v>218</v>
+      </c>
+      <c r="G179" t="s">
+        <v>219</v>
+      </c>
       <c r="H179" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8">
+        <v>220</v>
+      </c>
+      <c r="I179" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F180" t="s">
-        <v>17</v>
-      </c>
-      <c r="G180" t="s"/>
-      <c r="H180" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G180" t="s">
+        <v>21</v>
+      </c>
+      <c r="H180" t="s"/>
+      <c r="I180" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F181" t="s">
-        <v>192</v>
-      </c>
-      <c r="G181" t="s"/>
+        <v>218</v>
+      </c>
+      <c r="G181" t="s">
+        <v>219</v>
+      </c>
       <c r="H181" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8">
+        <v>220</v>
+      </c>
+      <c r="I181" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C182" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D182" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E182" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F182" t="s">
-        <v>17</v>
-      </c>
-      <c r="G182" t="s"/>
-      <c r="H182" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G182" t="s">
+        <v>21</v>
+      </c>
+      <c r="H182" t="s"/>
+      <c r="I182" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D183" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E183" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F183" t="s">
-        <v>192</v>
-      </c>
-      <c r="G183" t="s"/>
+        <v>218</v>
+      </c>
+      <c r="G183" t="s">
+        <v>219</v>
+      </c>
       <c r="H183" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
+        <v>220</v>
+      </c>
+      <c r="I183" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C184" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D184" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E184" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F184" t="s">
-        <v>17</v>
-      </c>
-      <c r="G184" t="s"/>
-      <c r="H184" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G184" t="s">
+        <v>21</v>
+      </c>
+      <c r="H184" t="s"/>
+      <c r="I184" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C185" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D185" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E185" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F185" t="s">
-        <v>192</v>
-      </c>
-      <c r="G185" t="s"/>
+        <v>218</v>
+      </c>
+      <c r="G185" t="s">
+        <v>219</v>
+      </c>
       <c r="H185" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8">
+        <v>220</v>
+      </c>
+      <c r="I185" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C186" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D186" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E186" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F186" t="s">
-        <v>17</v>
-      </c>
-      <c r="G186" t="s"/>
-      <c r="H186" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G186" t="s">
+        <v>21</v>
+      </c>
+      <c r="H186" t="s"/>
+      <c r="I186" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C187" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D187" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E187" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F187" t="s">
-        <v>192</v>
-      </c>
-      <c r="G187" t="s"/>
+        <v>218</v>
+      </c>
+      <c r="G187" t="s">
+        <v>219</v>
+      </c>
       <c r="H187" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8">
+        <v>220</v>
+      </c>
+      <c r="I187" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C188" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D188" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E188" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F188" t="s">
-        <v>17</v>
-      </c>
-      <c r="G188" t="s"/>
-      <c r="H188" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G188" t="s">
+        <v>21</v>
+      </c>
+      <c r="H188" t="s"/>
+      <c r="I188" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C189" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D189" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E189" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F189" t="s">
-        <v>192</v>
-      </c>
-      <c r="G189" t="s"/>
+        <v>218</v>
+      </c>
+      <c r="G189" t="s">
+        <v>219</v>
+      </c>
       <c r="H189" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8">
+        <v>220</v>
+      </c>
+      <c r="I189" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C190" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D190" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E190" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F190" t="s">
-        <v>11</v>
-      </c>
-      <c r="G190" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G190" t="s">
+        <v>13</v>
+      </c>
       <c r="H190" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I190" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C191" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D191" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E191" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F191" t="s">
-        <v>192</v>
-      </c>
-      <c r="G191" t="s"/>
+        <v>218</v>
+      </c>
+      <c r="G191" t="s">
+        <v>219</v>
+      </c>
       <c r="H191" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8">
+        <v>220</v>
+      </c>
+      <c r="I191" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C192" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D192" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E192" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F192" t="s">
-        <v>11</v>
-      </c>
-      <c r="G192" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G192" t="s">
+        <v>13</v>
+      </c>
       <c r="H192" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I192" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C193" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D193" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E193" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F193" t="s">
-        <v>208</v>
-      </c>
-      <c r="G193" t="s"/>
+        <v>236</v>
+      </c>
+      <c r="G193" t="s">
+        <v>237</v>
+      </c>
       <c r="H193" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8">
+        <v>238</v>
+      </c>
+      <c r="I193" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C194" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D194" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E194" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F194" t="s">
-        <v>17</v>
-      </c>
-      <c r="G194" t="s"/>
-      <c r="H194" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G194" t="s">
+        <v>21</v>
+      </c>
+      <c r="H194" t="s"/>
+      <c r="I194" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C195" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D195" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E195" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F195" t="s">
-        <v>208</v>
-      </c>
-      <c r="G195" t="s"/>
+        <v>236</v>
+      </c>
+      <c r="G195" t="s">
+        <v>237</v>
+      </c>
       <c r="H195" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8">
+        <v>238</v>
+      </c>
+      <c r="I195" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
       <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C196" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D196" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E196" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F196" t="s">
-        <v>17</v>
-      </c>
-      <c r="G196" t="s"/>
-      <c r="H196" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G196" t="s">
+        <v>21</v>
+      </c>
+      <c r="H196" t="s"/>
+      <c r="I196" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
       <c r="A197" s="1" t="n">
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C197" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D197" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E197" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F197" t="s">
-        <v>208</v>
-      </c>
-      <c r="G197" t="s"/>
+        <v>236</v>
+      </c>
+      <c r="G197" t="s">
+        <v>237</v>
+      </c>
       <c r="H197" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8">
+        <v>238</v>
+      </c>
+      <c r="I197" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9">
       <c r="A198" s="1" t="n">
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C198" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D198" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E198" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F198" t="s">
-        <v>17</v>
-      </c>
-      <c r="G198" t="s"/>
-      <c r="H198" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G198" t="s">
+        <v>21</v>
+      </c>
+      <c r="H198" t="s"/>
+      <c r="I198" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
       <c r="A199" s="1" t="n">
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C199" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D199" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E199" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F199" t="s">
-        <v>208</v>
-      </c>
-      <c r="G199" t="s"/>
+        <v>236</v>
+      </c>
+      <c r="G199" t="s">
+        <v>237</v>
+      </c>
       <c r="H199" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8">
+        <v>238</v>
+      </c>
+      <c r="I199" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9">
       <c r="A200" s="1" t="n">
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C200" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D200" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E200" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F200" t="s">
-        <v>17</v>
-      </c>
-      <c r="G200" t="s"/>
-      <c r="H200" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G200" t="s">
+        <v>21</v>
+      </c>
+      <c r="H200" t="s"/>
+      <c r="I200" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9">
       <c r="A201" s="1" t="n">
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C201" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D201" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E201" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F201" t="s">
-        <v>208</v>
-      </c>
-      <c r="G201" t="s"/>
+        <v>236</v>
+      </c>
+      <c r="G201" t="s">
+        <v>237</v>
+      </c>
       <c r="H201" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8">
+        <v>238</v>
+      </c>
+      <c r="I201" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9">
       <c r="A202" s="1" t="n">
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C202" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D202" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E202" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F202" t="s">
-        <v>17</v>
-      </c>
-      <c r="G202" t="s"/>
-      <c r="H202" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G202" t="s">
+        <v>24</v>
+      </c>
+      <c r="H202" t="s"/>
+      <c r="I202" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9">
       <c r="A203" s="1" t="n">
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C203" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D203" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E203" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F203" t="s">
-        <v>208</v>
-      </c>
-      <c r="G203" t="s"/>
+        <v>236</v>
+      </c>
+      <c r="G203" t="s">
+        <v>237</v>
+      </c>
       <c r="H203" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8">
+        <v>238</v>
+      </c>
+      <c r="I203" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9">
       <c r="A204" s="1" t="n">
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C204" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D204" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E204" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F204" t="s">
-        <v>17</v>
-      </c>
-      <c r="G204" t="s"/>
-      <c r="H204" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8">
+        <v>20</v>
+      </c>
+      <c r="G204" t="s">
+        <v>35</v>
+      </c>
+      <c r="H204" t="s"/>
+      <c r="I204" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9">
       <c r="A205" s="1" t="n">
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C205" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D205" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E205" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F205" t="s">
-        <v>208</v>
-      </c>
-      <c r="G205" t="s"/>
+        <v>236</v>
+      </c>
+      <c r="G205" t="s">
+        <v>237</v>
+      </c>
       <c r="H205" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8">
+        <v>238</v>
+      </c>
+      <c r="I205" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9">
       <c r="A206" s="1" t="n">
         <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C206" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D206" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E206" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F206" t="s">
-        <v>11</v>
-      </c>
-      <c r="G206" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G206" t="s">
+        <v>13</v>
+      </c>
       <c r="H206" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I206" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9">
       <c r="A207" s="1" t="n">
         <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C207" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D207" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E207" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F207" t="s">
-        <v>11</v>
-      </c>
-      <c r="G207" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G207" t="s">
+        <v>13</v>
+      </c>
       <c r="H207" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I207" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9">
       <c r="A208" s="1" t="n">
         <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C208" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D208" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E208" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F208" t="s">
-        <v>11</v>
-      </c>
-      <c r="G208" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G208" t="s">
+        <v>13</v>
+      </c>
       <c r="H208" t="s">
-        <v>223</v>
+        <v>14</v>
+      </c>
+      <c r="I208" t="s">
+        <v>253</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg95226.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg95226.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="257">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400381</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Smith</t>
   </si>
   <si>
@@ -104,6 +110,9 @@
   </si>
   <si>
     <t>412263</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Edwards</t>
@@ -1124,7 +1133,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I208"/>
+  <dimension ref="A1:J208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1132,7 +1141,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1157,5852 +1166,6320 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I12" t="s">
+        <v>34</v>
+      </c>
+      <c r="J12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
         <v>13</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G14" t="s">
         <v>14</v>
       </c>
-      <c r="I10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" t="s">
-        <v>31</v>
-      </c>
-      <c r="I12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" t="s">
-        <v>35</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" t="s">
-        <v>21</v>
-      </c>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>20</v>
-      </c>
-      <c r="G19" t="s">
-        <v>21</v>
-      </c>
-      <c r="H19" t="s"/>
-      <c r="I19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I19" t="s"/>
+      <c r="J19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>20</v>
-      </c>
-      <c r="G21" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
+        <v>23</v>
+      </c>
+      <c r="I21" t="s"/>
+      <c r="J21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>20</v>
-      </c>
-      <c r="G23" t="s">
-        <v>24</v>
-      </c>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
+        <v>26</v>
+      </c>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I24" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>20</v>
-      </c>
-      <c r="G25" t="s">
-        <v>27</v>
-      </c>
-      <c r="H25" t="s"/>
-      <c r="I25" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="G25" t="s"/>
+      <c r="H25" t="s">
+        <v>29</v>
+      </c>
+      <c r="I25" t="s"/>
+      <c r="J25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I26" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>20</v>
-      </c>
-      <c r="G27" t="s">
-        <v>27</v>
-      </c>
-      <c r="H27" t="s"/>
-      <c r="I27" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
+        <v>29</v>
+      </c>
+      <c r="I27" t="s"/>
+      <c r="J27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I28" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>20</v>
-      </c>
-      <c r="G29" t="s">
-        <v>35</v>
-      </c>
-      <c r="H29" t="s"/>
-      <c r="I29" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
+        <v>38</v>
+      </c>
+      <c r="I29" t="s"/>
+      <c r="J29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I30" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>20</v>
-      </c>
-      <c r="G31" t="s">
-        <v>35</v>
-      </c>
-      <c r="H31" t="s"/>
-      <c r="I31" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
+        <v>38</v>
+      </c>
+      <c r="I31" t="s"/>
+      <c r="J31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I32" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>20</v>
-      </c>
-      <c r="G33" t="s">
-        <v>35</v>
-      </c>
-      <c r="H33" t="s"/>
-      <c r="I33" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s">
+        <v>38</v>
+      </c>
+      <c r="I33" t="s"/>
+      <c r="J33" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I34" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J34" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>20</v>
-      </c>
-      <c r="G35" t="s">
-        <v>27</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>29</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>20</v>
-      </c>
-      <c r="G36" t="s">
-        <v>27</v>
-      </c>
-      <c r="H36" t="s"/>
-      <c r="I36" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="G36" t="s"/>
+      <c r="H36" t="s">
+        <v>29</v>
+      </c>
+      <c r="I36" t="s"/>
+      <c r="J36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G37" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H37" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I37" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J37" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G38" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="H38" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I38" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>64</v>
+      </c>
+      <c r="J38" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>20</v>
-      </c>
-      <c r="G39" t="s">
-        <v>27</v>
-      </c>
-      <c r="H39" t="s"/>
-      <c r="I39" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
+        <v>29</v>
+      </c>
+      <c r="I39" t="s"/>
+      <c r="J39" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G40" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="H40" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I40" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="41" spans="1:9">
+      <c r="J40" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>20</v>
-      </c>
-      <c r="G41" t="s">
-        <v>27</v>
-      </c>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
+        <v>29</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G42" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="H42" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I42" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>64</v>
+      </c>
+      <c r="J42" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>20</v>
-      </c>
-      <c r="G43" t="s">
-        <v>27</v>
-      </c>
-      <c r="H43" t="s"/>
-      <c r="I43" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="G43" t="s"/>
+      <c r="H43" t="s">
+        <v>29</v>
+      </c>
+      <c r="I43" t="s"/>
+      <c r="J43" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G44" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="H44" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I44" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>64</v>
+      </c>
+      <c r="J44" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>20</v>
-      </c>
-      <c r="G45" t="s">
-        <v>27</v>
-      </c>
-      <c r="H45" t="s"/>
-      <c r="I45" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="G45" t="s"/>
+      <c r="H45" t="s">
+        <v>29</v>
+      </c>
+      <c r="I45" t="s"/>
+      <c r="J45" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G46" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="H46" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I46" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>64</v>
+      </c>
+      <c r="J46" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>20</v>
-      </c>
-      <c r="G47" t="s">
-        <v>27</v>
-      </c>
-      <c r="H47" t="s"/>
-      <c r="I47" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="G47" t="s"/>
+      <c r="H47" t="s">
+        <v>29</v>
+      </c>
+      <c r="I47" t="s"/>
+      <c r="J47" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G48" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="H48" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I48" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>64</v>
+      </c>
+      <c r="J48" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>20</v>
-      </c>
-      <c r="G49" t="s">
-        <v>24</v>
-      </c>
-      <c r="H49" t="s"/>
-      <c r="I49" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s">
+        <v>26</v>
+      </c>
+      <c r="I49" t="s"/>
+      <c r="J49" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G50" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="H50" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I50" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>64</v>
+      </c>
+      <c r="J50" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G51" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H51" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I51" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J51" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G52" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="H52" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I52" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>64</v>
+      </c>
+      <c r="J52" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G53" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H53" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I53" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J53" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G54" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H54" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I54" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="J54" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G55" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H55" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I55" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J55" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G56" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H56" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I56" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="J56" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G57" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H57" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I57" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J57" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G58" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H58" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I58" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="J58" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G59" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H59" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I59" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J59" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G60" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H60" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I60" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="J60" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G61" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H61" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I61" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J61" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G62" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H62" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I62" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="J62" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G63" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H63" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I63" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J63" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G64" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H64" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I64" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="J64" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G65" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H65" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I65" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J65" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G66" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H66" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I66" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="J66" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G67" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H67" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I67" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J67" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G68" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H68" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I68" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>34</v>
+      </c>
+      <c r="J68" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G69" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H69" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I69" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J69" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G70" t="s">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="H70" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I70" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>98</v>
+      </c>
+      <c r="J70" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>20</v>
-      </c>
-      <c r="G71" t="s">
-        <v>21</v>
-      </c>
-      <c r="H71" t="s"/>
-      <c r="I71" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="G71" t="s"/>
+      <c r="H71" t="s">
+        <v>23</v>
+      </c>
+      <c r="I71" t="s"/>
+      <c r="J71" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>20</v>
-      </c>
-      <c r="G72" t="s">
-        <v>24</v>
-      </c>
-      <c r="H72" t="s"/>
-      <c r="I72" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="G72" t="s"/>
+      <c r="H72" t="s">
+        <v>26</v>
+      </c>
+      <c r="I72" t="s"/>
+      <c r="J72" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G73" t="s">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="H73" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I73" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>98</v>
+      </c>
+      <c r="J73" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>20</v>
-      </c>
-      <c r="G74" t="s">
-        <v>35</v>
-      </c>
-      <c r="H74" t="s"/>
-      <c r="I74" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="G74" t="s"/>
+      <c r="H74" t="s">
+        <v>38</v>
+      </c>
+      <c r="I74" t="s"/>
+      <c r="J74" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>20</v>
-      </c>
-      <c r="G75" t="s">
-        <v>27</v>
-      </c>
-      <c r="H75" t="s"/>
-      <c r="I75" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="G75" t="s"/>
+      <c r="H75" t="s">
+        <v>29</v>
+      </c>
+      <c r="I75" t="s"/>
+      <c r="J75" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G76" t="s">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="H76" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I76" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>98</v>
+      </c>
+      <c r="J76" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G77" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H77" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I77" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J77" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G78" t="s">
-        <v>105</v>
+        <v>32</v>
       </c>
       <c r="H78" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="I78" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>109</v>
+      </c>
+      <c r="J78" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G79" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H79" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I79" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J79" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G80" t="s">
-        <v>105</v>
+        <v>32</v>
       </c>
       <c r="H80" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="I80" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>109</v>
+      </c>
+      <c r="J80" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>20</v>
-      </c>
-      <c r="G81" t="s">
-        <v>27</v>
-      </c>
-      <c r="H81" t="s"/>
-      <c r="I81" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="G81" t="s"/>
+      <c r="H81" t="s">
+        <v>29</v>
+      </c>
+      <c r="I81" t="s"/>
+      <c r="J81" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G82" t="s">
-        <v>105</v>
+        <v>32</v>
       </c>
       <c r="H82" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="I82" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>109</v>
+      </c>
+      <c r="J82" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>20</v>
-      </c>
-      <c r="G83" t="s">
-        <v>27</v>
-      </c>
-      <c r="H83" t="s"/>
-      <c r="I83" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="G83" t="s"/>
+      <c r="H83" t="s">
+        <v>29</v>
+      </c>
+      <c r="I83" t="s"/>
+      <c r="J83" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="G84" t="s">
-        <v>105</v>
+        <v>32</v>
       </c>
       <c r="H84" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="I84" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>109</v>
+      </c>
+      <c r="J84" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G85" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H85" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I85" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J85" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G86" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H86" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I86" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J86" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G87" t="s">
-        <v>116</v>
+        <v>32</v>
       </c>
       <c r="H87" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="I87" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>120</v>
+      </c>
+      <c r="J87" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>20</v>
-      </c>
-      <c r="G88" t="s">
-        <v>24</v>
-      </c>
-      <c r="H88" t="s"/>
-      <c r="I88" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="G88" t="s"/>
+      <c r="H88" t="s">
+        <v>26</v>
+      </c>
+      <c r="I88" t="s"/>
+      <c r="J88" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G89" t="s">
-        <v>116</v>
+        <v>32</v>
       </c>
       <c r="H89" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="I89" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="90" spans="1:9">
+      <c r="J89" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>20</v>
-      </c>
-      <c r="G90" t="s">
-        <v>35</v>
-      </c>
-      <c r="H90" t="s"/>
-      <c r="I90" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="G90" t="s"/>
+      <c r="H90" t="s">
+        <v>38</v>
+      </c>
+      <c r="I90" t="s"/>
+      <c r="J90" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G91" t="s">
-        <v>116</v>
+        <v>32</v>
       </c>
       <c r="H91" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="I91" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>120</v>
+      </c>
+      <c r="J91" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G92" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H92" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I92" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J92" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G93" t="s">
-        <v>125</v>
+        <v>32</v>
       </c>
       <c r="H93" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="I93" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>129</v>
+      </c>
+      <c r="J93" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G94" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H94" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I94" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J94" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>20</v>
-      </c>
-      <c r="G95" t="s">
-        <v>27</v>
-      </c>
-      <c r="H95" t="s"/>
-      <c r="I95" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="G95" t="s"/>
+      <c r="H95" t="s">
+        <v>29</v>
+      </c>
+      <c r="I95" t="s"/>
+      <c r="J95" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G96" t="s">
-        <v>125</v>
+        <v>32</v>
       </c>
       <c r="H96" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="I96" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>129</v>
+      </c>
+      <c r="J96" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>20</v>
-      </c>
-      <c r="G97" t="s">
-        <v>24</v>
-      </c>
-      <c r="H97" t="s"/>
-      <c r="I97" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="G97" t="s"/>
+      <c r="H97" t="s">
+        <v>26</v>
+      </c>
+      <c r="I97" t="s"/>
+      <c r="J97" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G98" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H98" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I98" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J98" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>20</v>
-      </c>
-      <c r="G99" t="s">
-        <v>24</v>
-      </c>
-      <c r="H99" t="s"/>
-      <c r="I99" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="G99" t="s"/>
+      <c r="H99" t="s">
+        <v>26</v>
+      </c>
+      <c r="I99" t="s"/>
+      <c r="J99" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>20</v>
-      </c>
-      <c r="G100" t="s">
-        <v>35</v>
-      </c>
-      <c r="H100" t="s"/>
-      <c r="I100" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="G100" t="s"/>
+      <c r="H100" t="s">
+        <v>38</v>
+      </c>
+      <c r="I100" t="s"/>
+      <c r="J100" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G101" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H101" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I101" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J101" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="G102" t="s">
-        <v>137</v>
+        <v>32</v>
       </c>
       <c r="H102" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I102" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>141</v>
+      </c>
+      <c r="J102" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G103" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H103" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I103" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J103" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="G104" t="s">
-        <v>137</v>
+        <v>32</v>
       </c>
       <c r="H104" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I104" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="105" spans="1:9">
+      <c r="J104" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>20</v>
-      </c>
-      <c r="G105" t="s">
-        <v>27</v>
-      </c>
-      <c r="H105" t="s"/>
-      <c r="I105" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="G105" t="s"/>
+      <c r="H105" t="s">
+        <v>29</v>
+      </c>
+      <c r="I105" t="s"/>
+      <c r="J105" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="G106" t="s">
-        <v>137</v>
+        <v>32</v>
       </c>
       <c r="H106" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I106" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>141</v>
+      </c>
+      <c r="J106" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>20</v>
-      </c>
-      <c r="G107" t="s">
-        <v>27</v>
-      </c>
-      <c r="H107" t="s"/>
-      <c r="I107" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="G107" t="s"/>
+      <c r="H107" t="s">
+        <v>29</v>
+      </c>
+      <c r="I107" t="s"/>
+      <c r="J107" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="G108" t="s">
-        <v>137</v>
+        <v>32</v>
       </c>
       <c r="H108" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I108" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>141</v>
+      </c>
+      <c r="J108" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G109" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H109" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I109" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J109" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="G110" t="s">
-        <v>148</v>
+        <v>32</v>
       </c>
       <c r="H110" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I110" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>152</v>
+      </c>
+      <c r="J110" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>20</v>
-      </c>
-      <c r="G111" t="s">
-        <v>27</v>
-      </c>
-      <c r="H111" t="s"/>
-      <c r="I111" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="G111" t="s"/>
+      <c r="H111" t="s">
+        <v>29</v>
+      </c>
+      <c r="I111" t="s"/>
+      <c r="J111" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="G112" t="s">
-        <v>148</v>
+        <v>32</v>
       </c>
       <c r="H112" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I112" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="113" spans="1:9">
+      <c r="J112" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>20</v>
-      </c>
-      <c r="G113" t="s">
-        <v>27</v>
-      </c>
-      <c r="H113" t="s"/>
-      <c r="I113" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="G113" t="s"/>
+      <c r="H113" t="s">
+        <v>29</v>
+      </c>
+      <c r="I113" t="s"/>
+      <c r="J113" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="G114" t="s">
-        <v>148</v>
+        <v>32</v>
       </c>
       <c r="H114" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I114" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>152</v>
+      </c>
+      <c r="J114" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>20</v>
-      </c>
-      <c r="G115" t="s">
-        <v>35</v>
-      </c>
-      <c r="H115" t="s"/>
-      <c r="I115" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="G115" t="s"/>
+      <c r="H115" t="s">
+        <v>38</v>
+      </c>
+      <c r="I115" t="s"/>
+      <c r="J115" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="G116" t="s">
-        <v>148</v>
+        <v>32</v>
       </c>
       <c r="H116" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I116" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>152</v>
+      </c>
+      <c r="J116" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G117" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H117" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I117" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J117" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="G118" t="s">
-        <v>159</v>
+        <v>32</v>
       </c>
       <c r="H118" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="I118" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>163</v>
+      </c>
+      <c r="J118" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>20</v>
-      </c>
-      <c r="G119" t="s">
-        <v>21</v>
-      </c>
-      <c r="H119" t="s"/>
-      <c r="I119" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="G119" t="s"/>
+      <c r="H119" t="s">
+        <v>23</v>
+      </c>
+      <c r="I119" t="s"/>
+      <c r="J119" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="G120" t="s">
-        <v>159</v>
+        <v>32</v>
       </c>
       <c r="H120" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="I120" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="121" spans="1:9">
+      <c r="J120" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>20</v>
-      </c>
-      <c r="G121" t="s">
-        <v>21</v>
-      </c>
-      <c r="H121" t="s"/>
-      <c r="I121" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="G121" t="s"/>
+      <c r="H121" t="s">
+        <v>23</v>
+      </c>
+      <c r="I121" t="s"/>
+      <c r="J121" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="G122" t="s">
-        <v>159</v>
+        <v>32</v>
       </c>
       <c r="H122" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="I122" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>163</v>
+      </c>
+      <c r="J122" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>20</v>
-      </c>
-      <c r="G123" t="s">
-        <v>21</v>
-      </c>
-      <c r="H123" t="s"/>
-      <c r="I123" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="G123" t="s"/>
+      <c r="H123" t="s">
+        <v>23</v>
+      </c>
+      <c r="I123" t="s"/>
+      <c r="J123" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="G124" t="s">
-        <v>159</v>
+        <v>32</v>
       </c>
       <c r="H124" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="I124" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>163</v>
+      </c>
+      <c r="J124" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>20</v>
-      </c>
-      <c r="G125" t="s">
-        <v>21</v>
-      </c>
-      <c r="H125" t="s"/>
-      <c r="I125" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="G125" t="s"/>
+      <c r="H125" t="s">
+        <v>23</v>
+      </c>
+      <c r="I125" t="s"/>
+      <c r="J125" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="G126" t="s">
-        <v>159</v>
+        <v>32</v>
       </c>
       <c r="H126" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="I126" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>163</v>
+      </c>
+      <c r="J126" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>20</v>
-      </c>
-      <c r="G127" t="s">
-        <v>21</v>
-      </c>
-      <c r="H127" t="s"/>
-      <c r="I127" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="G127" t="s"/>
+      <c r="H127" t="s">
+        <v>23</v>
+      </c>
+      <c r="I127" t="s"/>
+      <c r="J127" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="G128" t="s">
-        <v>159</v>
+        <v>32</v>
       </c>
       <c r="H128" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="I128" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>163</v>
+      </c>
+      <c r="J128" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F129" t="s">
-        <v>20</v>
-      </c>
-      <c r="G129" t="s">
-        <v>21</v>
-      </c>
-      <c r="H129" t="s"/>
-      <c r="I129" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="G129" t="s"/>
+      <c r="H129" t="s">
+        <v>23</v>
+      </c>
+      <c r="I129" t="s"/>
+      <c r="J129" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F130" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G130" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H130" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I130" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J130" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F131" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G131" t="s">
-        <v>175</v>
+        <v>32</v>
       </c>
       <c r="H131" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="I131" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>163</v>
+      </c>
+      <c r="J131" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F132" t="s">
-        <v>20</v>
-      </c>
-      <c r="G132" t="s">
-        <v>21</v>
-      </c>
-      <c r="H132" t="s"/>
-      <c r="I132" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="G132" t="s"/>
+      <c r="H132" t="s">
+        <v>23</v>
+      </c>
+      <c r="I132" t="s"/>
+      <c r="J132" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F133" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G133" t="s">
-        <v>175</v>
+        <v>32</v>
       </c>
       <c r="H133" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="I133" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>163</v>
+      </c>
+      <c r="J133" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F134" t="s">
-        <v>20</v>
-      </c>
-      <c r="G134" t="s">
-        <v>21</v>
-      </c>
-      <c r="H134" t="s"/>
-      <c r="I134" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="G134" t="s"/>
+      <c r="H134" t="s">
+        <v>23</v>
+      </c>
+      <c r="I134" t="s"/>
+      <c r="J134" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F135" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G135" t="s">
-        <v>175</v>
+        <v>32</v>
       </c>
       <c r="H135" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="I135" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>163</v>
+      </c>
+      <c r="J135" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E136" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F136" t="s">
-        <v>20</v>
-      </c>
-      <c r="G136" t="s">
-        <v>21</v>
-      </c>
-      <c r="H136" t="s"/>
-      <c r="I136" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="G136" t="s"/>
+      <c r="H136" t="s">
+        <v>23</v>
+      </c>
+      <c r="I136" t="s"/>
+      <c r="J136" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E137" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F137" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G137" t="s">
-        <v>175</v>
+        <v>32</v>
       </c>
       <c r="H137" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="I137" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>163</v>
+      </c>
+      <c r="J137" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E138" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F138" t="s">
-        <v>20</v>
-      </c>
-      <c r="G138" t="s">
-        <v>24</v>
-      </c>
-      <c r="H138" t="s"/>
-      <c r="I138" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="G138" t="s"/>
+      <c r="H138" t="s">
+        <v>26</v>
+      </c>
+      <c r="I138" t="s"/>
+      <c r="J138" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E139" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F139" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G139" t="s">
-        <v>175</v>
+        <v>32</v>
       </c>
       <c r="H139" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="I139" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>163</v>
+      </c>
+      <c r="J139" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E140" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F140" t="s">
-        <v>20</v>
-      </c>
-      <c r="G140" t="s">
-        <v>27</v>
-      </c>
-      <c r="H140" t="s"/>
-      <c r="I140" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="G140" t="s"/>
+      <c r="H140" t="s">
+        <v>29</v>
+      </c>
+      <c r="I140" t="s"/>
+      <c r="J140" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E141" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F141" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G141" t="s">
-        <v>175</v>
+        <v>32</v>
       </c>
       <c r="H141" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="I141" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>163</v>
+      </c>
+      <c r="J141" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E142" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F142" t="s">
-        <v>20</v>
-      </c>
-      <c r="G142" t="s">
-        <v>35</v>
-      </c>
-      <c r="H142" t="s"/>
-      <c r="I142" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="G142" t="s"/>
+      <c r="H142" t="s">
+        <v>38</v>
+      </c>
+      <c r="I142" t="s"/>
+      <c r="J142" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E143" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F143" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G143" t="s">
-        <v>175</v>
+        <v>32</v>
       </c>
       <c r="H143" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="I143" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+        <v>163</v>
+      </c>
+      <c r="J143" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E144" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F144" t="s">
-        <v>20</v>
-      </c>
-      <c r="G144" t="s">
-        <v>35</v>
-      </c>
-      <c r="H144" t="s"/>
-      <c r="I144" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="G144" t="s"/>
+      <c r="H144" t="s">
+        <v>38</v>
+      </c>
+      <c r="I144" t="s"/>
+      <c r="J144" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E145" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F145" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G145" t="s">
-        <v>175</v>
+        <v>32</v>
       </c>
       <c r="H145" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="I145" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+        <v>163</v>
+      </c>
+      <c r="J145" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E146" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F146" t="s">
-        <v>20</v>
-      </c>
-      <c r="G146" t="s">
-        <v>35</v>
-      </c>
-      <c r="H146" t="s"/>
-      <c r="I146" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="G146" t="s"/>
+      <c r="H146" t="s">
+        <v>38</v>
+      </c>
+      <c r="I146" t="s"/>
+      <c r="J146" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E147" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F147" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G147" t="s">
-        <v>175</v>
+        <v>32</v>
       </c>
       <c r="H147" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="I147" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+        <v>163</v>
+      </c>
+      <c r="J147" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E148" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F148" t="s">
-        <v>20</v>
-      </c>
-      <c r="G148" t="s">
-        <v>24</v>
-      </c>
-      <c r="H148" t="s"/>
-      <c r="I148" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="G148" t="s"/>
+      <c r="H148" t="s">
+        <v>26</v>
+      </c>
+      <c r="I148" t="s"/>
+      <c r="J148" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E149" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F149" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G149" t="s">
-        <v>175</v>
+        <v>32</v>
       </c>
       <c r="H149" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="I149" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
+        <v>163</v>
+      </c>
+      <c r="J149" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E150" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F150" t="s">
-        <v>20</v>
-      </c>
-      <c r="G150" t="s">
-        <v>24</v>
-      </c>
-      <c r="H150" t="s"/>
-      <c r="I150" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="G150" t="s"/>
+      <c r="H150" t="s">
+        <v>26</v>
+      </c>
+      <c r="I150" t="s"/>
+      <c r="J150" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E151" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F151" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G151" t="s">
-        <v>175</v>
+        <v>32</v>
       </c>
       <c r="H151" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="I151" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
+        <v>163</v>
+      </c>
+      <c r="J151" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E152" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F152" t="s">
-        <v>20</v>
-      </c>
-      <c r="G152" t="s">
-        <v>24</v>
-      </c>
-      <c r="H152" t="s"/>
-      <c r="I152" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="G152" t="s"/>
+      <c r="H152" t="s">
+        <v>26</v>
+      </c>
+      <c r="I152" t="s"/>
+      <c r="J152" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E153" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F153" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G153" t="s">
-        <v>175</v>
+        <v>32</v>
       </c>
       <c r="H153" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="I153" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
+        <v>163</v>
+      </c>
+      <c r="J153" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E154" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F154" t="s">
-        <v>20</v>
-      </c>
-      <c r="G154" t="s">
-        <v>24</v>
-      </c>
-      <c r="H154" t="s"/>
-      <c r="I154" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="G154" t="s"/>
+      <c r="H154" t="s">
+        <v>26</v>
+      </c>
+      <c r="I154" t="s"/>
+      <c r="J154" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E155" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F155" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G155" t="s">
-        <v>175</v>
+        <v>32</v>
       </c>
       <c r="H155" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="I155" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
+        <v>163</v>
+      </c>
+      <c r="J155" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E156" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F156" t="s">
-        <v>20</v>
-      </c>
-      <c r="G156" t="s">
-        <v>21</v>
-      </c>
-      <c r="H156" t="s"/>
-      <c r="I156" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="G156" t="s"/>
+      <c r="H156" t="s">
+        <v>23</v>
+      </c>
+      <c r="I156" t="s"/>
+      <c r="J156" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E157" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F157" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G157" t="s">
-        <v>175</v>
+        <v>32</v>
       </c>
       <c r="H157" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="I157" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9">
+        <v>163</v>
+      </c>
+      <c r="J157" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E158" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F158" t="s">
-        <v>20</v>
-      </c>
-      <c r="G158" t="s">
-        <v>27</v>
-      </c>
-      <c r="H158" t="s"/>
-      <c r="I158" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="G158" t="s"/>
+      <c r="H158" t="s">
+        <v>29</v>
+      </c>
+      <c r="I158" t="s"/>
+      <c r="J158" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E159" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F159" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G159" t="s">
-        <v>175</v>
+        <v>32</v>
       </c>
       <c r="H159" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="I159" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9">
+        <v>163</v>
+      </c>
+      <c r="J159" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E160" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F160" t="s">
-        <v>20</v>
-      </c>
-      <c r="G160" t="s">
-        <v>35</v>
-      </c>
-      <c r="H160" t="s"/>
-      <c r="I160" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="G160" t="s"/>
+      <c r="H160" t="s">
+        <v>38</v>
+      </c>
+      <c r="I160" t="s"/>
+      <c r="J160" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E161" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F161" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G161" t="s">
-        <v>175</v>
+        <v>32</v>
       </c>
       <c r="H161" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="I161" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9">
+        <v>163</v>
+      </c>
+      <c r="J161" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E162" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F162" t="s">
-        <v>20</v>
-      </c>
-      <c r="G162" t="s">
-        <v>35</v>
-      </c>
-      <c r="H162" t="s"/>
-      <c r="I162" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="G162" t="s"/>
+      <c r="H162" t="s">
+        <v>38</v>
+      </c>
+      <c r="I162" t="s"/>
+      <c r="J162" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E163" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F163" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G163" t="s">
-        <v>175</v>
+        <v>32</v>
       </c>
       <c r="H163" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="I163" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9">
+        <v>163</v>
+      </c>
+      <c r="J163" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E164" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F164" t="s">
-        <v>20</v>
-      </c>
-      <c r="G164" t="s">
-        <v>35</v>
-      </c>
-      <c r="H164" t="s"/>
-      <c r="I164" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="G164" t="s"/>
+      <c r="H164" t="s">
+        <v>38</v>
+      </c>
+      <c r="I164" t="s"/>
+      <c r="J164" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E165" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F165" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G165" t="s">
-        <v>175</v>
+        <v>32</v>
       </c>
       <c r="H165" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="I165" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9">
+        <v>163</v>
+      </c>
+      <c r="J165" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E166" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F166" t="s">
-        <v>20</v>
-      </c>
-      <c r="G166" t="s">
-        <v>27</v>
-      </c>
-      <c r="H166" t="s"/>
-      <c r="I166" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="G166" t="s"/>
+      <c r="H166" t="s">
+        <v>29</v>
+      </c>
+      <c r="I166" t="s"/>
+      <c r="J166" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E167" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F167" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G167" t="s">
-        <v>175</v>
+        <v>32</v>
       </c>
       <c r="H167" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="I167" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9">
+        <v>163</v>
+      </c>
+      <c r="J167" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E168" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F168" t="s">
-        <v>20</v>
-      </c>
-      <c r="G168" t="s">
-        <v>27</v>
-      </c>
-      <c r="H168" t="s"/>
-      <c r="I168" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="G168" t="s"/>
+      <c r="H168" t="s">
+        <v>29</v>
+      </c>
+      <c r="I168" t="s"/>
+      <c r="J168" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E169" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F169" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G169" t="s">
-        <v>175</v>
+        <v>32</v>
       </c>
       <c r="H169" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="I169" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9">
+        <v>163</v>
+      </c>
+      <c r="J169" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E170" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F170" t="s">
-        <v>20</v>
-      </c>
-      <c r="G170" t="s">
-        <v>24</v>
-      </c>
-      <c r="H170" t="s"/>
-      <c r="I170" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="G170" t="s"/>
+      <c r="H170" t="s">
+        <v>26</v>
+      </c>
+      <c r="I170" t="s"/>
+      <c r="J170" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E171" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F171" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G171" t="s">
-        <v>175</v>
+        <v>32</v>
       </c>
       <c r="H171" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="I171" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9">
+        <v>163</v>
+      </c>
+      <c r="J171" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E172" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F172" t="s">
-        <v>20</v>
-      </c>
-      <c r="G172" t="s">
-        <v>21</v>
-      </c>
-      <c r="H172" t="s"/>
-      <c r="I172" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="G172" t="s"/>
+      <c r="H172" t="s">
+        <v>23</v>
+      </c>
+      <c r="I172" t="s"/>
+      <c r="J172" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E173" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F173" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G173" t="s">
-        <v>175</v>
+        <v>32</v>
       </c>
       <c r="H173" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="I173" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9">
+        <v>163</v>
+      </c>
+      <c r="J173" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E174" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F174" t="s">
-        <v>20</v>
-      </c>
-      <c r="G174" t="s">
-        <v>35</v>
-      </c>
-      <c r="H174" t="s"/>
-      <c r="I174" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="G174" t="s"/>
+      <c r="H174" t="s">
+        <v>38</v>
+      </c>
+      <c r="I174" t="s"/>
+      <c r="J174" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E175" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F175" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="G175" t="s">
-        <v>175</v>
+        <v>32</v>
       </c>
       <c r="H175" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="I175" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9">
+        <v>163</v>
+      </c>
+      <c r="J175" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E176" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F176" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G176" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H176" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I176" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J176" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E177" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F177" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="G177" t="s">
-        <v>219</v>
+        <v>32</v>
       </c>
       <c r="H177" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="I177" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9">
+        <v>223</v>
+      </c>
+      <c r="J177" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E178" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F178" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G178" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H178" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I178" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J178" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E179" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F179" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="G179" t="s">
-        <v>219</v>
+        <v>32</v>
       </c>
       <c r="H179" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="I179" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9">
+        <v>223</v>
+      </c>
+      <c r="J179" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E180" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F180" t="s">
-        <v>20</v>
-      </c>
-      <c r="G180" t="s">
-        <v>21</v>
-      </c>
-      <c r="H180" t="s"/>
-      <c r="I180" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="G180" t="s"/>
+      <c r="H180" t="s">
+        <v>23</v>
+      </c>
+      <c r="I180" t="s"/>
+      <c r="J180" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E181" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F181" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="G181" t="s">
-        <v>219</v>
+        <v>32</v>
       </c>
       <c r="H181" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="I181" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9">
+        <v>223</v>
+      </c>
+      <c r="J181" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C182" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D182" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E182" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F182" t="s">
-        <v>20</v>
-      </c>
-      <c r="G182" t="s">
-        <v>21</v>
-      </c>
-      <c r="H182" t="s"/>
-      <c r="I182" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="G182" t="s"/>
+      <c r="H182" t="s">
+        <v>23</v>
+      </c>
+      <c r="I182" t="s"/>
+      <c r="J182" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C183" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D183" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E183" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F183" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="G183" t="s">
-        <v>219</v>
+        <v>32</v>
       </c>
       <c r="H183" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="I183" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9">
+        <v>223</v>
+      </c>
+      <c r="J183" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C184" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D184" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E184" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F184" t="s">
-        <v>20</v>
-      </c>
-      <c r="G184" t="s">
-        <v>21</v>
-      </c>
-      <c r="H184" t="s"/>
-      <c r="I184" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="G184" t="s"/>
+      <c r="H184" t="s">
+        <v>23</v>
+      </c>
+      <c r="I184" t="s"/>
+      <c r="J184" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C185" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D185" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E185" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F185" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="G185" t="s">
-        <v>219</v>
+        <v>32</v>
       </c>
       <c r="H185" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="I185" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9">
+        <v>223</v>
+      </c>
+      <c r="J185" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C186" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D186" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E186" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F186" t="s">
-        <v>20</v>
-      </c>
-      <c r="G186" t="s">
-        <v>21</v>
-      </c>
-      <c r="H186" t="s"/>
-      <c r="I186" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="G186" t="s"/>
+      <c r="H186" t="s">
+        <v>23</v>
+      </c>
+      <c r="I186" t="s"/>
+      <c r="J186" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C187" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D187" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E187" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F187" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="G187" t="s">
-        <v>219</v>
+        <v>32</v>
       </c>
       <c r="H187" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="I187" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9">
+        <v>223</v>
+      </c>
+      <c r="J187" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C188" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D188" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E188" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F188" t="s">
-        <v>20</v>
-      </c>
-      <c r="G188" t="s">
-        <v>21</v>
-      </c>
-      <c r="H188" t="s"/>
-      <c r="I188" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="G188" t="s"/>
+      <c r="H188" t="s">
+        <v>23</v>
+      </c>
+      <c r="I188" t="s"/>
+      <c r="J188" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C189" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D189" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E189" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F189" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="G189" t="s">
-        <v>219</v>
+        <v>32</v>
       </c>
       <c r="H189" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="I189" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9">
+        <v>223</v>
+      </c>
+      <c r="J189" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C190" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D190" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E190" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F190" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G190" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H190" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I190" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J190" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C191" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D191" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E191" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F191" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="G191" t="s">
-        <v>219</v>
+        <v>32</v>
       </c>
       <c r="H191" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="I191" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9">
+        <v>223</v>
+      </c>
+      <c r="J191" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10">
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C192" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D192" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E192" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F192" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G192" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H192" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I192" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J192" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10">
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C193" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D193" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E193" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F193" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="G193" t="s">
-        <v>237</v>
+        <v>32</v>
       </c>
       <c r="H193" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I193" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9">
+        <v>241</v>
+      </c>
+      <c r="J193" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10">
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C194" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D194" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E194" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F194" t="s">
-        <v>20</v>
-      </c>
-      <c r="G194" t="s">
-        <v>21</v>
-      </c>
-      <c r="H194" t="s"/>
-      <c r="I194" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="G194" t="s"/>
+      <c r="H194" t="s">
+        <v>23</v>
+      </c>
+      <c r="I194" t="s"/>
+      <c r="J194" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10">
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C195" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D195" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E195" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F195" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="G195" t="s">
-        <v>237</v>
+        <v>32</v>
       </c>
       <c r="H195" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I195" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="196" spans="1:9">
+      <c r="J195" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10">
       <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C196" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D196" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E196" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F196" t="s">
-        <v>20</v>
-      </c>
-      <c r="G196" t="s">
-        <v>21</v>
-      </c>
-      <c r="H196" t="s"/>
-      <c r="I196" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="G196" t="s"/>
+      <c r="H196" t="s">
+        <v>23</v>
+      </c>
+      <c r="I196" t="s"/>
+      <c r="J196" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10">
       <c r="A197" s="1" t="n">
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C197" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D197" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E197" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F197" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="G197" t="s">
-        <v>237</v>
+        <v>32</v>
       </c>
       <c r="H197" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I197" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9">
+        <v>241</v>
+      </c>
+      <c r="J197" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10">
       <c r="A198" s="1" t="n">
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C198" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D198" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E198" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F198" t="s">
-        <v>20</v>
-      </c>
-      <c r="G198" t="s">
-        <v>21</v>
-      </c>
-      <c r="H198" t="s"/>
-      <c r="I198" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="G198" t="s"/>
+      <c r="H198" t="s">
+        <v>23</v>
+      </c>
+      <c r="I198" t="s"/>
+      <c r="J198" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10">
       <c r="A199" s="1" t="n">
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C199" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D199" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E199" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F199" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="G199" t="s">
-        <v>237</v>
+        <v>32</v>
       </c>
       <c r="H199" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I199" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9">
+        <v>241</v>
+      </c>
+      <c r="J199" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10">
       <c r="A200" s="1" t="n">
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C200" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D200" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E200" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F200" t="s">
-        <v>20</v>
-      </c>
-      <c r="G200" t="s">
-        <v>21</v>
-      </c>
-      <c r="H200" t="s"/>
-      <c r="I200" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="G200" t="s"/>
+      <c r="H200" t="s">
+        <v>23</v>
+      </c>
+      <c r="I200" t="s"/>
+      <c r="J200" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10">
       <c r="A201" s="1" t="n">
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C201" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D201" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E201" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F201" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="G201" t="s">
-        <v>237</v>
+        <v>32</v>
       </c>
       <c r="H201" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I201" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9">
+        <v>241</v>
+      </c>
+      <c r="J201" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10">
       <c r="A202" s="1" t="n">
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C202" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D202" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E202" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F202" t="s">
-        <v>20</v>
-      </c>
-      <c r="G202" t="s">
-        <v>24</v>
-      </c>
-      <c r="H202" t="s"/>
-      <c r="I202" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="G202" t="s"/>
+      <c r="H202" t="s">
+        <v>26</v>
+      </c>
+      <c r="I202" t="s"/>
+      <c r="J202" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10">
       <c r="A203" s="1" t="n">
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C203" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D203" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E203" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F203" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="G203" t="s">
-        <v>237</v>
+        <v>32</v>
       </c>
       <c r="H203" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I203" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9">
+        <v>241</v>
+      </c>
+      <c r="J203" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10">
       <c r="A204" s="1" t="n">
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C204" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D204" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E204" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F204" t="s">
-        <v>20</v>
-      </c>
-      <c r="G204" t="s">
-        <v>35</v>
-      </c>
-      <c r="H204" t="s"/>
-      <c r="I204" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="205" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="G204" t="s"/>
+      <c r="H204" t="s">
+        <v>38</v>
+      </c>
+      <c r="I204" t="s"/>
+      <c r="J204" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10">
       <c r="A205" s="1" t="n">
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C205" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D205" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E205" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F205" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="G205" t="s">
-        <v>237</v>
+        <v>32</v>
       </c>
       <c r="H205" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="I205" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9">
+        <v>241</v>
+      </c>
+      <c r="J205" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10">
       <c r="A206" s="1" t="n">
         <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C206" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D206" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E206" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F206" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G206" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H206" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I206" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="207" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J206" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10">
       <c r="A207" s="1" t="n">
         <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C207" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D207" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E207" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F207" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G207" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H207" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I207" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J207" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10">
       <c r="A208" s="1" t="n">
         <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C208" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D208" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E208" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F208" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G208" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H208" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I208" t="s">
-        <v>253</v>
+        <v>16</v>
+      </c>
+      <c r="J208" t="s">
+        <v>256</v>
       </c>
     </row>
   </sheetData>
